--- a/2020Q4.xlsx
+++ b/2020Q4.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="200">
   <si>
     <t>Powered by dabu.io</t>
   </si>
@@ -130,6 +130,12 @@
     <t>KUO</t>
   </si>
   <si>
+    <t>LALA</t>
+  </si>
+  <si>
+    <t>MEDICA</t>
+  </si>
+  <si>
     <t>NEMAK</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t>VESTA</t>
+  </si>
+  <si>
+    <t>VINTE</t>
   </si>
   <si>
     <t>VOLAR</t>
@@ -1144,7 +1153,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF60"/>
+  <dimension ref="A2:AI60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1159,7 +1168,7 @@
     <col min="2" max="234" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,10 +1265,19 @@
       <c r="AF2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1298,14 +1316,17 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7">
         <v>27335.7</v>
@@ -1380,30 +1401,39 @@
         <v>4812.69</v>
       </c>
       <c r="Z4" s="7">
+        <v>4777.37</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>572.8440000000001</v>
+      </c>
+      <c r="AB4" s="7">
         <v>8719.620000000001</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AC4" s="7">
         <v>2958.8</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AD4" s="7">
         <v>7273.7</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AE4" s="7">
         <v>29169</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF4" s="7">
         <v>3710.61</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>120.542</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AH4" s="7">
+        <v>1293.22</v>
+      </c>
+      <c r="AI4" s="7">
         <v>10103.4</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9">
         <v>10641.6</v>
@@ -1478,30 +1508,39 @@
         <v>3497.62</v>
       </c>
       <c r="Z5" s="9">
+        <v>9916.02</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>660.117</v>
+      </c>
+      <c r="AB5" s="9">
         <v>9569.719999999999</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AC5" s="9">
         <v>992.1609999999999</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AD5" s="9">
         <v>10864.5</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AE5" s="9">
         <v>25663.3</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AF5" s="9">
         <v>27923.1</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AG5" s="9">
         <v>6.781</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AH5" s="9">
+        <v>375.09</v>
+      </c>
+      <c r="AI5" s="9">
         <v>1945.65</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -1576,30 +1615,39 @@
         <v>97.86199999999999</v>
       </c>
       <c r="Z6" s="7">
+        <v>1038.97</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>14.293</v>
+      </c>
+      <c r="AB6" s="7">
         <v>95.595</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AC6" s="7">
         <v>542.365</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AD6" s="7">
         <v>151.865</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE6" s="7">
         <v>5050.59</v>
       </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
         <v>14.861</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
         <v>471.652</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:35">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9">
         <v>871.3390000000001</v>
@@ -1674,30 +1722,39 @@
         <v>0</v>
       </c>
       <c r="Z7" s="9">
+        <v>319.433</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
         <v>121.35</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AC7" s="9">
         <v>181.808</v>
       </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
       <c r="AD7" s="9">
         <v>0</v>
       </c>
       <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
         <v>0.6850000000000001</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
         <v>0.206</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7">
         <v>8250.620000000001</v>
@@ -1772,30 +1829,39 @@
         <v>5897.27</v>
       </c>
       <c r="Z8" s="7">
+        <v>6021.52</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>155.377</v>
+      </c>
+      <c r="AB8" s="7">
         <v>12685.4</v>
       </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
         <v>9340.66</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE8" s="7">
         <v>1641.3</v>
       </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
       <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>2849.4</v>
+      </c>
+      <c r="AI8" s="7">
         <v>278.959</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:35">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -1890,10 +1956,19 @@
       <c r="AF9" s="9">
         <v>0</v>
       </c>
+      <c r="AG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -1968,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="7">
-        <v>0</v>
+        <v>224.015</v>
       </c>
       <c r="AA10" s="7">
         <v>0</v>
@@ -1977,21 +2052,30 @@
         <v>0</v>
       </c>
       <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
         <v>7994.66</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AF10" s="7">
         <v>755.949</v>
       </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>187.269</v>
+      </c>
+      <c r="AI10" s="7">
         <v>1633.91</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9">
         <v>47099.3</v>
@@ -2066,30 +2150,39 @@
         <v>15660.4</v>
       </c>
       <c r="Z11" s="9">
+        <v>22297.3</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1402.63</v>
+      </c>
+      <c r="AB11" s="9">
         <v>31191.7</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AC11" s="9">
         <v>4675.14</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AD11" s="9">
         <v>27630.7</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AE11" s="9">
         <v>69518.89999999999</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>32389.6</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>142.869</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AH11" s="9">
+        <v>4704.99</v>
+      </c>
+      <c r="AI11" s="9">
         <v>14433.8</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -2164,10 +2257,10 @@
         <v>28.573</v>
       </c>
       <c r="Z12" s="7">
-        <v>0</v>
+        <v>128.281</v>
       </c>
       <c r="AA12" s="7">
-        <v>0</v>
+        <v>215.614</v>
       </c>
       <c r="AB12" s="7">
         <v>0</v>
@@ -2184,10 +2277,19 @@
       <c r="AF12" s="7">
         <v>0</v>
       </c>
+      <c r="AG12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:35">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9">
         <v>47099.3</v>
@@ -2262,30 +2364,39 @@
         <v>15689</v>
       </c>
       <c r="Z13" s="9">
+        <v>22425.6</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>1618.24</v>
+      </c>
+      <c r="AB13" s="9">
         <v>31191.7</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AC13" s="9">
         <v>4675.14</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AD13" s="9">
         <v>27630.7</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AE13" s="9">
         <v>69518.89999999999</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AF13" s="9">
         <v>32389.6</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AG13" s="9">
         <v>142.869</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AH13" s="9">
+        <v>4704.99</v>
+      </c>
+      <c r="AI13" s="9">
         <v>14433.8</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
         <v>702.3440000000001</v>
@@ -2360,7 +2471,7 @@
         <v>122.954</v>
       </c>
       <c r="Z14" s="7">
-        <v>0</v>
+        <v>2321.11</v>
       </c>
       <c r="AA14" s="7">
         <v>0</v>
@@ -2372,18 +2483,27 @@
         <v>0</v>
       </c>
       <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
         <v>34664.7</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="7">
         <v>4.506</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AH14" s="7">
+        <v>0.394</v>
+      </c>
+      <c r="AI14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:35">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -2458,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="9">
-        <v>0</v>
+        <v>1399.98</v>
       </c>
       <c r="AA15" s="9">
         <v>0</v>
@@ -2478,10 +2598,19 @@
       <c r="AF15" s="9">
         <v>0</v>
       </c>
+      <c r="AG15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -2562,24 +2691,33 @@
         <v>0</v>
       </c>
       <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
         <v>918.787</v>
       </c>
-      <c r="AC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
       <c r="AE16" s="7">
         <v>0</v>
       </c>
       <c r="AF16" s="7">
         <v>0</v>
       </c>
+      <c r="AG16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>4364.64</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:35">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -2674,10 +2812,19 @@
       <c r="AF17" s="9">
         <v>0</v>
       </c>
+      <c r="AG17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:35">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -2752,30 +2899,39 @@
         <v>0</v>
       </c>
       <c r="Z18" s="7">
+        <v>105.527</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
         <v>205.184</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AC18" s="7">
         <v>11.23</v>
       </c>
-      <c r="AB18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7">
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
         <v>7002.71</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AF18" s="7">
         <v>5026.18</v>
       </c>
-      <c r="AE18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="7">
+      <c r="AG18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
         <v>0.326</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:35">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -2870,10 +3026,19 @@
       <c r="AF19" s="9">
         <v>0</v>
       </c>
+      <c r="AG19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:35">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="7">
         <v>8308.209999999999</v>
@@ -2948,30 +3113,39 @@
         <v>10613.5</v>
       </c>
       <c r="Z20" s="7">
+        <v>508.462</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
         <v>564.713</v>
       </c>
-      <c r="AA20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>0</v>
-      </c>
       <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
         <v>22784.8</v>
       </c>
-      <c r="AD20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="7">
-        <v>0</v>
-      </c>
       <c r="AF20" s="7">
         <v>0</v>
       </c>
+      <c r="AG20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:35">
       <c r="A21" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="9">
         <v>69658.8</v>
@@ -3046,30 +3220,39 @@
         <v>10613.6</v>
       </c>
       <c r="Z21" s="9">
+        <v>19702.8</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>2766.39</v>
+      </c>
+      <c r="AB21" s="9">
         <v>51491</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AC21" s="9">
         <v>2700.47</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AD21" s="9">
         <v>15961.4</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AE21" s="9">
         <v>83284.39999999999</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AF21" s="9">
         <v>6413.92</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AG21" s="9">
         <v>2.855</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AH21" s="9">
+        <v>94.503</v>
+      </c>
+      <c r="AI21" s="9">
         <v>7281.16</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:35">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -3147,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="7">
-        <v>0</v>
+        <v>80.241</v>
       </c>
       <c r="AB22" s="7">
         <v>0</v>
@@ -3156,18 +3339,27 @@
         <v>0</v>
       </c>
       <c r="AD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
         <v>745.271</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AG22" s="7">
         <v>2103.21</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AH22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:35">
       <c r="A23" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9">
         <v>1190</v>
@@ -3242,30 +3434,39 @@
         <v>1628.37</v>
       </c>
       <c r="Z23" s="9">
+        <v>2743.89</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>299.476</v>
+      </c>
+      <c r="AB23" s="9">
         <v>1796.69</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AC23" s="9">
         <v>178.247</v>
       </c>
-      <c r="AB23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="9">
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
         <v>7212.17</v>
       </c>
-      <c r="AD23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="9">
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
         <v>0.658</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AH23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="9">
         <v>34316.2</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:35">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7">
         <v>55929.2</v>
@@ -3340,30 +3541,39 @@
         <v>0.998</v>
       </c>
       <c r="Z24" s="7">
+        <v>14832.7</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>1025.13</v>
+      </c>
+      <c r="AB24" s="7">
         <v>6194.05</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AC24" s="7">
         <v>23.391</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AD24" s="7">
         <v>1814.16</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AE24" s="7">
         <v>14113.6</v>
       </c>
-      <c r="AD24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="7">
-        <v>0</v>
-      </c>
       <c r="AF24" s="7">
         <v>0</v>
       </c>
+      <c r="AG24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:35">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" s="9">
         <v>60495.2</v>
@@ -3438,30 +3648,39 @@
         <v>5280.21</v>
       </c>
       <c r="Z25" s="9">
+        <v>5082.27</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>374.329</v>
+      </c>
+      <c r="AB25" s="9">
         <v>6026.81</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AC25" s="9">
         <v>10229.7</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AD25" s="9">
         <v>509.71</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AE25" s="9">
         <v>28607.9</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AF25" s="9">
         <v>159.652</v>
       </c>
-      <c r="AE25" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="9">
+      <c r="AG25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>83.54600000000001</v>
+      </c>
+      <c r="AI25" s="9">
         <v>191.562</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:35">
       <c r="A26" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7">
         <v>2590.69</v>
@@ -3536,30 +3755,39 @@
         <v>1250.82</v>
       </c>
       <c r="Z26" s="7">
+        <v>2497.69</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>41.883</v>
+      </c>
+      <c r="AB26" s="7">
         <v>1030.46</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AC26" s="7">
         <v>317.758</v>
       </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
         <v>28309.5</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AF26" s="7">
         <v>3418.51</v>
       </c>
-      <c r="AE26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="7">
+      <c r="AG26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="7">
         <v>3128.56</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:35">
       <c r="A27" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="9">
         <v>0</v>
@@ -3634,30 +3862,39 @@
         <v>246.593</v>
       </c>
       <c r="Z27" s="9">
+        <v>357.562</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
         <v>231.284</v>
       </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>0</v>
-      </c>
       <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9">
         <v>11151.3</v>
       </c>
-      <c r="AD27" s="9">
+      <c r="AF27" s="9">
         <v>2461.44</v>
       </c>
-      <c r="AE27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="9">
+      <c r="AG27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>7.35</v>
+      </c>
+      <c r="AI27" s="9">
         <v>8868.99</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:35">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>198874</v>
@@ -3732,30 +3969,39 @@
         <v>30206.9</v>
       </c>
       <c r="Z28" s="7">
+        <v>49552</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>4587.44</v>
+      </c>
+      <c r="AB28" s="7">
         <v>67540.2</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AC28" s="7">
         <v>13460.8</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AD28" s="7">
         <v>19204</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AE28" s="7">
         <v>202466</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AF28" s="7">
         <v>52889.6</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>2111.23</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AH28" s="7">
+        <v>4550.43</v>
+      </c>
+      <c r="AI28" s="7">
         <v>53786.8</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:35">
       <c r="A29" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B29" s="9">
         <v>245974</v>
@@ -3830,30 +4076,39 @@
         <v>45895.9</v>
       </c>
       <c r="Z29" s="9">
+        <v>71977.7</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>6205.69</v>
+      </c>
+      <c r="AB29" s="9">
         <v>98731.89999999999</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AC29" s="9">
         <v>18135.9</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AD29" s="9">
         <v>46834.8</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AE29" s="9">
         <v>271985</v>
       </c>
-      <c r="AD29" s="9">
+      <c r="AF29" s="9">
         <v>85279.3</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AG29" s="9">
         <v>2254.1</v>
       </c>
-      <c r="AF29" s="9">
+      <c r="AH29" s="9">
+        <v>9255.42</v>
+      </c>
+      <c r="AI29" s="9">
         <v>68220.60000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:35">
       <c r="A30" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7">
         <v>21341.7</v>
@@ -3928,30 +4183,39 @@
         <v>10528.6</v>
       </c>
       <c r="Z30" s="7">
+        <v>13340.6</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>744.224</v>
+      </c>
+      <c r="AB30" s="7">
         <v>25220.2</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AC30" s="7">
         <v>316.061</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AD30" s="7">
         <v>5366.18</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AE30" s="7">
         <v>36131.2</v>
       </c>
-      <c r="AD30" s="7">
+      <c r="AF30" s="7">
         <v>1715.75</v>
       </c>
-      <c r="AE30" s="7">
+      <c r="AG30" s="7">
         <v>6.136</v>
       </c>
-      <c r="AF30" s="7">
+      <c r="AH30" s="7">
+        <v>688.227</v>
+      </c>
+      <c r="AI30" s="7">
         <v>10483.3</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:35">
       <c r="A31" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" s="9">
         <v>1328.36</v>
@@ -4026,30 +4290,39 @@
         <v>375.762</v>
       </c>
       <c r="Z31" s="9">
+        <v>945.678</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>67.45099999999999</v>
+      </c>
+      <c r="AB31" s="9">
         <v>862.154</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AC31" s="9">
         <v>153.046</v>
       </c>
-      <c r="AB31" s="9">
+      <c r="AD31" s="9">
         <v>2894.32</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AE31" s="9">
         <v>2058.16</v>
       </c>
-      <c r="AD31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="9">
+      <c r="AF31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="9">
         <v>3.516</v>
       </c>
-      <c r="AF31" s="9">
+      <c r="AH31" s="9">
+        <v>122.512</v>
+      </c>
+      <c r="AI31" s="9">
         <v>4.005</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:35">
       <c r="A32" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B32" s="7">
         <v>7750.92</v>
@@ -4124,30 +4397,39 @@
         <v>784.263</v>
       </c>
       <c r="Z32" s="7">
+        <v>4694.04</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>19.325</v>
+      </c>
+      <c r="AB32" s="7">
         <v>4522.89</v>
       </c>
-      <c r="AA32" s="7">
+      <c r="AC32" s="7">
         <v>3013.5</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AD32" s="7">
         <v>6.02</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AE32" s="7">
         <v>4568.6</v>
       </c>
-      <c r="AD32" s="7">
+      <c r="AF32" s="7">
         <v>21327.5</v>
       </c>
-      <c r="AE32" s="7">
+      <c r="AG32" s="7">
         <v>4.756</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AH32" s="7">
+        <v>327.536</v>
+      </c>
+      <c r="AI32" s="7">
         <v>1575.76</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:35">
       <c r="A33" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="9">
         <v>358.034</v>
@@ -4222,30 +4504,39 @@
         <v>329.667</v>
       </c>
       <c r="Z33" s="9">
+        <v>757.226</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>87.708</v>
+      </c>
+      <c r="AB33" s="9">
         <v>421.515</v>
       </c>
-      <c r="AA33" s="9">
+      <c r="AC33" s="9">
         <v>25.732</v>
       </c>
-      <c r="AB33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="9">
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9">
         <v>1277.75</v>
       </c>
-      <c r="AD33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="9">
+      <c r="AF33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="9">
         <v>0.51</v>
       </c>
-      <c r="AF33" s="9">
+      <c r="AH33" s="9">
+        <v>12.023</v>
+      </c>
+      <c r="AI33" s="9">
         <v>6828.02</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:35">
       <c r="A34" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B34" s="7">
         <v>0</v>
@@ -4332,18 +4623,27 @@
         <v>0</v>
       </c>
       <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7">
         <v>1825.62</v>
       </c>
-      <c r="AE34" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="7">
+      <c r="AG34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>70.89400000000001</v>
+      </c>
+      <c r="AI34" s="7">
         <v>2333.33</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:35">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -4418,30 +4718,39 @@
         <v>0</v>
       </c>
       <c r="Z35" s="9">
-        <v>0</v>
+        <v>786.853</v>
       </c>
       <c r="AA35" s="9">
-        <v>0</v>
+        <v>15.094</v>
       </c>
       <c r="AB35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="9">
         <v>160.874</v>
       </c>
-      <c r="AC35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="9">
-        <v>0</v>
-      </c>
       <c r="AE35" s="9">
         <v>0</v>
       </c>
       <c r="AF35" s="9">
         <v>0</v>
       </c>
+      <c r="AG35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:35">
       <c r="A36" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B36" s="7">
         <v>0</v>
@@ -4516,30 +4825,39 @@
         <v>294.453</v>
       </c>
       <c r="Z36" s="7">
-        <v>0</v>
+        <v>2344.88</v>
       </c>
       <c r="AA36" s="7">
+        <v>29.924</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="7">
         <v>660.712</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AD36" s="7">
         <v>345.711</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AE36" s="7">
         <v>2.992</v>
       </c>
-      <c r="AD36" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="7">
-        <v>0</v>
-      </c>
       <c r="AF36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="7">
         <v>101.218</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:35">
       <c r="A37" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B37" s="9">
         <v>0</v>
@@ -4614,30 +4932,39 @@
         <v>294.453</v>
       </c>
       <c r="Z37" s="9">
-        <v>0</v>
+        <v>3131.74</v>
       </c>
       <c r="AA37" s="9">
+        <v>45.018</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="9">
         <v>660.712</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AD37" s="9">
         <v>506.585</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AE37" s="9">
         <v>2.992</v>
       </c>
-      <c r="AD37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="9">
-        <v>0</v>
-      </c>
       <c r="AF37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="9">
         <v>101.218</v>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:35">
       <c r="A38" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B38" s="7">
         <v>30779</v>
@@ -4712,30 +5039,39 @@
         <v>12312.7</v>
       </c>
       <c r="Z38" s="7">
+        <v>22869.3</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>963.726</v>
+      </c>
+      <c r="AB38" s="7">
         <v>31026.7</v>
       </c>
-      <c r="AA38" s="7">
+      <c r="AC38" s="7">
         <v>4169.05</v>
       </c>
-      <c r="AB38" s="7">
+      <c r="AD38" s="7">
         <v>8773.110000000001</v>
       </c>
-      <c r="AC38" s="7">
+      <c r="AE38" s="7">
         <v>44038.7</v>
       </c>
-      <c r="AD38" s="7">
+      <c r="AF38" s="7">
         <v>24868.9</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AG38" s="7">
         <v>14.918</v>
       </c>
-      <c r="AF38" s="7">
+      <c r="AH38" s="7">
+        <v>1221.19</v>
+      </c>
+      <c r="AI38" s="7">
         <v>21325.6</v>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:35">
       <c r="A39" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="9">
         <v>0</v>
@@ -4830,10 +5166,19 @@
       <c r="AF39" s="9">
         <v>0</v>
       </c>
+      <c r="AG39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:35">
       <c r="A40" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40" s="7">
         <v>30779</v>
@@ -4908,30 +5253,39 @@
         <v>12312.7</v>
       </c>
       <c r="Z40" s="7">
+        <v>22869.3</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>963.726</v>
+      </c>
+      <c r="AB40" s="7">
         <v>31026.7</v>
       </c>
-      <c r="AA40" s="7">
+      <c r="AC40" s="7">
         <v>4169.05</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AD40" s="7">
         <v>8773.110000000001</v>
       </c>
-      <c r="AC40" s="7">
+      <c r="AE40" s="7">
         <v>44038.7</v>
       </c>
-      <c r="AD40" s="7">
+      <c r="AF40" s="7">
         <v>24868.9</v>
       </c>
-      <c r="AE40" s="7">
+      <c r="AG40" s="7">
         <v>14.918</v>
       </c>
-      <c r="AF40" s="7">
+      <c r="AH40" s="7">
+        <v>1221.19</v>
+      </c>
+      <c r="AI40" s="7">
         <v>21325.6</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:35">
       <c r="A41" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="9">
         <v>830.106</v>
@@ -5009,27 +5363,36 @@
         <v>0</v>
       </c>
       <c r="AA41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="9">
         <v>350.738</v>
       </c>
-      <c r="AB41" s="9">
+      <c r="AD41" s="9">
         <v>284.856</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AE41" s="9">
         <v>2588.58</v>
       </c>
-      <c r="AD41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="9">
-        <v>0</v>
-      </c>
       <c r="AF41" s="9">
         <v>0</v>
       </c>
+      <c r="AG41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>66.736</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:35">
       <c r="A42" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
@@ -5113,21 +5476,30 @@
         <v>0</v>
       </c>
       <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
         <v>767.115</v>
       </c>
-      <c r="AD42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="7">
-        <v>0</v>
-      </c>
       <c r="AF42" s="7">
         <v>0</v>
       </c>
+      <c r="AG42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:35">
       <c r="A43" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B43" s="9">
         <v>43802.1</v>
@@ -5202,30 +5574,39 @@
         <v>16269.9</v>
       </c>
       <c r="Z43" s="9">
+        <v>25265.6</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>989.725</v>
+      </c>
+      <c r="AB43" s="9">
         <v>26722.8</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AC43" s="9">
         <v>1496.89</v>
       </c>
-      <c r="AB43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="9">
+      <c r="AD43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="9">
         <v>123395</v>
       </c>
-      <c r="AD43" s="9">
+      <c r="AF43" s="9">
         <v>44170</v>
       </c>
-      <c r="AE43" s="9">
+      <c r="AG43" s="9">
         <v>841.97</v>
       </c>
-      <c r="AF43" s="9">
+      <c r="AH43" s="9">
+        <v>2822.96</v>
+      </c>
+      <c r="AI43" s="9">
         <v>3788.53</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:35">
       <c r="A44" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B44" s="7">
         <v>853.223</v>
@@ -5300,30 +5681,39 @@
         <v>1387.1</v>
       </c>
       <c r="Z44" s="7">
+        <v>2157.06</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>206.235</v>
+      </c>
+      <c r="AB44" s="7">
         <v>1554.35</v>
       </c>
-      <c r="AA44" s="7">
+      <c r="AC44" s="7">
         <v>169.031</v>
       </c>
-      <c r="AB44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="7">
+      <c r="AD44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="7">
         <v>8014.6</v>
       </c>
-      <c r="AD44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="7">
+      <c r="AF44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="7">
         <v>0.221</v>
       </c>
-      <c r="AF44" s="7">
+      <c r="AH44" s="7">
+        <v>24.824</v>
+      </c>
+      <c r="AI44" s="7">
         <v>37325.5</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:35">
       <c r="A45" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="9">
         <v>0</v>
@@ -5398,30 +5788,39 @@
         <v>0</v>
       </c>
       <c r="Z45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="9">
         <v>31.883</v>
       </c>
-      <c r="AA45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
-        <v>0</v>
-      </c>
       <c r="AC45" s="9">
         <v>0</v>
       </c>
       <c r="AD45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="9">
         <v>2869.64</v>
       </c>
-      <c r="AE45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="9">
+      <c r="AG45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="9">
         <v>66.69799999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:35">
       <c r="A46" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B46" s="7">
         <v>5249.18</v>
@@ -5496,30 +5895,39 @@
         <v>659.759</v>
       </c>
       <c r="Z46" s="7">
+        <v>931.8819999999999</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>37.135</v>
+      </c>
+      <c r="AB46" s="7">
         <v>1567.77</v>
       </c>
-      <c r="AA46" s="7">
+      <c r="AC46" s="7">
         <v>115.691</v>
       </c>
-      <c r="AB46" s="7">
+      <c r="AD46" s="7">
         <v>130.507</v>
       </c>
-      <c r="AC46" s="7">
+      <c r="AE46" s="7">
         <v>2080.65</v>
       </c>
-      <c r="AD46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="7">
-        <v>0</v>
-      </c>
       <c r="AF46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>6.736</v>
+      </c>
+      <c r="AI46" s="7">
         <v>50.627</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:35">
       <c r="A47" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B47" s="9">
         <v>0</v>
@@ -5594,30 +6002,39 @@
         <v>0</v>
       </c>
       <c r="Z47" s="9">
+        <v>2705.73</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="9">
         <v>209.882</v>
       </c>
-      <c r="AA47" s="9">
+      <c r="AC47" s="9">
         <v>874.415</v>
       </c>
-      <c r="AB47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="9">
+      <c r="AD47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="9">
         <v>965.128</v>
       </c>
-      <c r="AD47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="9">
+      <c r="AF47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="9">
         <v>27.459</v>
       </c>
-      <c r="AF47" s="9">
+      <c r="AH47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="9">
         <v>2667.68</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:35">
       <c r="A48" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B48" s="7">
         <v>5249.18</v>
@@ -5692,30 +6109,39 @@
         <v>659.759</v>
       </c>
       <c r="Z48" s="7">
+        <v>3637.61</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>37.135</v>
+      </c>
+      <c r="AB48" s="7">
         <v>1777.65</v>
       </c>
-      <c r="AA48" s="7">
+      <c r="AC48" s="7">
         <v>990.106</v>
       </c>
-      <c r="AB48" s="7">
+      <c r="AD48" s="7">
         <v>130.507</v>
       </c>
-      <c r="AC48" s="7">
+      <c r="AE48" s="7">
         <v>3045.78</v>
       </c>
-      <c r="AD48" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="7">
+      <c r="AF48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="7">
         <v>27.459</v>
       </c>
-      <c r="AF48" s="7">
+      <c r="AH48" s="7">
+        <v>6.736</v>
+      </c>
+      <c r="AI48" s="7">
         <v>2718.31</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:35">
       <c r="A49" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B49" s="9">
         <v>17039.8</v>
@@ -5790,30 +6216,39 @@
         <v>1051.07</v>
       </c>
       <c r="Z49" s="9">
+        <v>1082.61</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
         <v>1951.14</v>
       </c>
-      <c r="AA49" s="9">
+      <c r="AC49" s="9">
         <v>133.828</v>
       </c>
-      <c r="AB49" s="9">
+      <c r="AD49" s="9">
         <v>3429.52</v>
       </c>
-      <c r="AC49" s="9">
+      <c r="AE49" s="9">
         <v>1824.59</v>
       </c>
-      <c r="AD49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="9">
+      <c r="AF49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="9">
         <v>260.873</v>
       </c>
-      <c r="AF49" s="9">
+      <c r="AH49" s="9">
+        <v>797.085</v>
+      </c>
+      <c r="AI49" s="9">
         <v>199.771</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:35">
       <c r="A50" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B50" s="7">
         <v>67774.5</v>
@@ -5888,30 +6323,39 @@
         <v>19658.5</v>
       </c>
       <c r="Z50" s="7">
+        <v>32142.9</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>1233.1</v>
+      </c>
+      <c r="AB50" s="7">
         <v>32037.8</v>
       </c>
-      <c r="AA50" s="7">
+      <c r="AC50" s="7">
         <v>3140.59</v>
       </c>
-      <c r="AB50" s="7">
+      <c r="AD50" s="7">
         <v>3844.88</v>
       </c>
-      <c r="AC50" s="7">
+      <c r="AE50" s="7">
         <v>139636</v>
       </c>
-      <c r="AD50" s="7">
+      <c r="AF50" s="7">
         <v>47039.6</v>
       </c>
-      <c r="AE50" s="7">
+      <c r="AG50" s="7">
         <v>1130.52</v>
       </c>
-      <c r="AF50" s="7">
+      <c r="AH50" s="7">
+        <v>3718.34</v>
+      </c>
+      <c r="AI50" s="7">
         <v>44098.8</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:35">
       <c r="A51" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B51" s="9">
         <v>98553.39999999999</v>
@@ -5986,30 +6430,39 @@
         <v>31971.3</v>
       </c>
       <c r="Z51" s="9">
+        <v>55012.2</v>
+      </c>
+      <c r="AA51" s="9">
+        <v>2196.82</v>
+      </c>
+      <c r="AB51" s="9">
         <v>63064.6</v>
       </c>
-      <c r="AA51" s="9">
+      <c r="AC51" s="9">
         <v>7309.64</v>
       </c>
-      <c r="AB51" s="9">
+      <c r="AD51" s="9">
         <v>12618</v>
       </c>
-      <c r="AC51" s="9">
+      <c r="AE51" s="9">
         <v>183675</v>
       </c>
-      <c r="AD51" s="9">
+      <c r="AF51" s="9">
         <v>71908.60000000001</v>
       </c>
-      <c r="AE51" s="9">
+      <c r="AG51" s="9">
         <v>1145.44</v>
       </c>
-      <c r="AF51" s="9">
+      <c r="AH51" s="9">
+        <v>4939.53</v>
+      </c>
+      <c r="AI51" s="9">
         <v>65424.4</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:35">
       <c r="A52" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B52" s="7">
         <v>981.9589999999999</v>
@@ -6084,30 +6537,39 @@
         <v>2727.53</v>
       </c>
       <c r="Z52" s="7">
+        <v>1485.88</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>517.874</v>
+      </c>
+      <c r="AB52" s="7">
         <v>6598.94</v>
       </c>
-      <c r="AA52" s="7">
+      <c r="AC52" s="7">
         <v>300.822</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AD52" s="7">
         <v>2832.27</v>
       </c>
-      <c r="AC52" s="7">
+      <c r="AE52" s="7">
         <v>4907.77</v>
       </c>
-      <c r="AD52" s="7">
+      <c r="AF52" s="7">
         <v>5615.22</v>
       </c>
-      <c r="AE52" s="7">
+      <c r="AG52" s="7">
         <v>422.438</v>
       </c>
-      <c r="AF52" s="7">
+      <c r="AH52" s="7">
+        <v>1609.11</v>
+      </c>
+      <c r="AI52" s="7">
         <v>3426.41</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:35">
       <c r="A53" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B53" s="9">
         <v>45086.5</v>
@@ -6182,30 +6644,39 @@
         <v>0</v>
       </c>
       <c r="Z53" s="9">
+        <v>12241.9</v>
+      </c>
+      <c r="AA53" s="9">
+        <v>121.281</v>
+      </c>
+      <c r="AB53" s="9">
         <v>10433.6</v>
       </c>
-      <c r="AA53" s="9">
+      <c r="AC53" s="9">
         <v>29.786</v>
       </c>
-      <c r="AB53" s="9">
+      <c r="AD53" s="9">
         <v>4575.23</v>
       </c>
-      <c r="AC53" s="9">
+      <c r="AE53" s="9">
         <v>15889.8</v>
       </c>
-      <c r="AD53" s="9">
+      <c r="AF53" s="9">
         <v>3949.3</v>
       </c>
-      <c r="AE53" s="9">
+      <c r="AG53" s="9">
         <v>297.064</v>
       </c>
-      <c r="AF53" s="9">
+      <c r="AH53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="9">
         <v>4720.9</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:35">
       <c r="A54" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B54" s="7">
         <v>0</v>
@@ -6286,24 +6757,33 @@
         <v>0</v>
       </c>
       <c r="AB54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="7">
         <v>2101.65</v>
       </c>
-      <c r="AC54" s="7">
+      <c r="AE54" s="7">
         <v>16079.1</v>
       </c>
-      <c r="AD54" s="7">
+      <c r="AF54" s="7">
         <v>1082.92</v>
       </c>
-      <c r="AE54" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="7">
+      <c r="AG54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>-129.165</v>
+      </c>
+      <c r="AI54" s="7">
         <v>224.424</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:35">
       <c r="A55" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B55" s="9">
         <v>69882.60000000001</v>
@@ -6378,30 +6858,39 @@
         <v>9924.49</v>
       </c>
       <c r="Z55" s="9">
+        <v>12937.4</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>3378.7</v>
+      </c>
+      <c r="AB55" s="9">
         <v>10217.2</v>
       </c>
-      <c r="AA55" s="9">
+      <c r="AC55" s="9">
         <v>10324.7</v>
       </c>
-      <c r="AB55" s="9">
+      <c r="AD55" s="9">
         <v>22176.8</v>
       </c>
-      <c r="AC55" s="9">
+      <c r="AE55" s="9">
         <v>84638.39999999999</v>
       </c>
-      <c r="AD55" s="9">
+      <c r="AF55" s="9">
         <v>4729.87</v>
       </c>
-      <c r="AE55" s="9">
+      <c r="AG55" s="9">
         <v>437.034</v>
       </c>
-      <c r="AF55" s="9">
+      <c r="AH55" s="9">
+        <v>2472.54</v>
+      </c>
+      <c r="AI55" s="9">
         <v>-3855.38</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:35">
       <c r="A56" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B56" s="7">
         <v>902.854</v>
@@ -6476,30 +6965,39 @@
         <v>1859.96</v>
       </c>
       <c r="Z56" s="7">
+        <v>-9699.690000000001</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>-9.976000000000001</v>
+      </c>
+      <c r="AB56" s="7">
         <v>8417.639999999999</v>
       </c>
-      <c r="AA56" s="7">
+      <c r="AC56" s="7">
         <v>-4.933</v>
       </c>
-      <c r="AB56" s="7">
+      <c r="AD56" s="7">
         <v>6707.82</v>
       </c>
-      <c r="AC56" s="7">
+      <c r="AE56" s="7">
         <v>-15556.4</v>
       </c>
-      <c r="AD56" s="7">
+      <c r="AF56" s="7">
         <v>159.225</v>
       </c>
-      <c r="AE56" s="7">
+      <c r="AG56" s="7">
         <v>-47.874</v>
       </c>
-      <c r="AF56" s="7">
+      <c r="AH56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="7">
         <v>-1271.32</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:35">
       <c r="A57" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B57" s="9">
         <v>116854</v>
@@ -6574,30 +7072,39 @@
         <v>13924</v>
       </c>
       <c r="Z57" s="9">
+        <v>16965.5</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>4007.88</v>
+      </c>
+      <c r="AB57" s="9">
         <v>35667.4</v>
       </c>
-      <c r="AA57" s="9">
+      <c r="AC57" s="9">
         <v>10650.3</v>
       </c>
-      <c r="AB57" s="9">
+      <c r="AD57" s="9">
         <v>34190.5</v>
       </c>
-      <c r="AC57" s="9">
+      <c r="AE57" s="9">
         <v>73800.5</v>
       </c>
-      <c r="AD57" s="9">
+      <c r="AF57" s="9">
         <v>13370.7</v>
       </c>
-      <c r="AE57" s="9">
+      <c r="AG57" s="9">
         <v>1108.66</v>
       </c>
-      <c r="AF57" s="9">
+      <c r="AH57" s="9">
+        <v>4210.82</v>
+      </c>
+      <c r="AI57" s="9">
         <v>2796.19</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:35">
       <c r="A58" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B58" s="7">
         <v>30566.3</v>
@@ -6675,27 +7182,36 @@
         <v>0</v>
       </c>
       <c r="AA58" s="7">
+        <v>0.984</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="7">
         <v>175.906</v>
       </c>
-      <c r="AB58" s="7">
+      <c r="AD58" s="7">
         <v>26.309</v>
       </c>
-      <c r="AC58" s="7">
+      <c r="AE58" s="7">
         <v>14510.1</v>
       </c>
-      <c r="AD58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="7">
-        <v>0</v>
-      </c>
       <c r="AF58" s="7">
         <v>0</v>
       </c>
+      <c r="AG58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="7">
+        <v>105.073</v>
+      </c>
+      <c r="AI58" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:35">
       <c r="A59" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B59" s="9">
         <v>147420</v>
@@ -6770,30 +7286,39 @@
         <v>13924.6</v>
       </c>
       <c r="Z59" s="9">
+        <v>16965.5</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>4008.87</v>
+      </c>
+      <c r="AB59" s="9">
         <v>35667.4</v>
       </c>
-      <c r="AA59" s="9">
+      <c r="AC59" s="9">
         <v>10826.2</v>
       </c>
-      <c r="AB59" s="9">
+      <c r="AD59" s="9">
         <v>34216.8</v>
       </c>
-      <c r="AC59" s="9">
+      <c r="AE59" s="9">
         <v>88310.60000000001</v>
       </c>
-      <c r="AD59" s="9">
+      <c r="AF59" s="9">
         <v>13370.7</v>
       </c>
-      <c r="AE59" s="9">
+      <c r="AG59" s="9">
         <v>1108.66</v>
       </c>
-      <c r="AF59" s="9">
+      <c r="AH59" s="9">
+        <v>4315.89</v>
+      </c>
+      <c r="AI59" s="9">
         <v>2796.19</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:35">
       <c r="A60" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" s="7">
         <v>245974</v>
@@ -6868,64 +7393,73 @@
         <v>45895.9</v>
       </c>
       <c r="Z60" s="7">
+        <v>71977.7</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>6205.69</v>
+      </c>
+      <c r="AB60" s="7">
         <v>98731.89999999999</v>
       </c>
-      <c r="AA60" s="7">
+      <c r="AC60" s="7">
         <v>18135.9</v>
       </c>
-      <c r="AB60" s="7">
+      <c r="AD60" s="7">
         <v>46834.8</v>
       </c>
-      <c r="AC60" s="7">
+      <c r="AE60" s="7">
         <v>271985</v>
       </c>
-      <c r="AD60" s="7">
+      <c r="AF60" s="7">
         <v>85279.3</v>
       </c>
-      <c r="AE60" s="7">
+      <c r="AG60" s="7">
         <v>2254.1</v>
       </c>
-      <c r="AF60" s="7">
+      <c r="AH60" s="7">
+        <v>9255.42</v>
+      </c>
+      <c r="AI60" s="7">
         <v>68220.60000000001</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:AF13">
+  <conditionalFormatting sqref="A13:AI13">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:AF28">
+  <conditionalFormatting sqref="A28:AI28">
     <cfRule type="notContainsErrors" dxfId="0" priority="2">
       <formula>NOT(ISERROR(A28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:AF29">
+  <conditionalFormatting sqref="A29:AI29">
     <cfRule type="notContainsErrors" dxfId="0" priority="3">
       <formula>NOT(ISERROR(A29))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:AF40">
+  <conditionalFormatting sqref="A40:AI40">
     <cfRule type="notContainsErrors" dxfId="0" priority="4">
       <formula>NOT(ISERROR(A40))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:AF50">
+  <conditionalFormatting sqref="A50:AI50">
     <cfRule type="notContainsErrors" dxfId="0" priority="5">
       <formula>NOT(ISERROR(A50))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:AF51">
+  <conditionalFormatting sqref="A51:AI51">
     <cfRule type="notContainsErrors" dxfId="0" priority="6">
       <formula>NOT(ISERROR(A51))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:AF59">
+  <conditionalFormatting sqref="A59:AI59">
     <cfRule type="notContainsErrors" dxfId="0" priority="7">
       <formula>NOT(ISERROR(A59))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:AF60">
+  <conditionalFormatting sqref="A60:AI60">
     <cfRule type="notContainsErrors" dxfId="0" priority="8">
       <formula>NOT(ISERROR(A60))</formula>
     </cfRule>
@@ -6946,7 +7480,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF21"/>
+  <dimension ref="A2:AI21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -6961,7 +7495,7 @@
     <col min="2" max="234" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7058,10 +7592,19 @@
       <c r="AF2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7100,14 +7643,17 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B4" s="7">
         <v>42664.9</v>
@@ -7182,30 +7728,39 @@
         <v>8952.66</v>
       </c>
       <c r="Z4" s="7">
+        <v>20654</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1467.49</v>
+      </c>
+      <c r="AB4" s="7">
         <v>19547.7</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AC4" s="7">
         <v>1622.57</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AD4" s="7">
         <v>10218.3</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AE4" s="7">
         <v>27782.7</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF4" s="7">
         <v>2759.04</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>38.029</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AH4" s="7">
+        <v>1222.1</v>
+      </c>
+      <c r="AI4" s="7">
         <v>8085.56</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5" s="9">
         <v>23010.1</v>
@@ -7280,30 +7835,39 @@
         <v>7564.01</v>
       </c>
       <c r="Z5" s="9">
+        <v>13643.1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>828.471</v>
+      </c>
+      <c r="AB5" s="9">
         <v>16836.8</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AC5" s="9">
         <v>961.341</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AD5" s="9">
         <v>8381.02</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AE5" s="9">
         <v>15438.8</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AF5" s="9">
         <v>2135.29</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AG5" s="9">
         <v>2.47</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AH5" s="9">
+        <v>904.199</v>
+      </c>
+      <c r="AI5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="7">
         <v>19654.8</v>
@@ -7378,30 +7942,39 @@
         <v>1388.65</v>
       </c>
       <c r="Z6" s="7">
+        <v>7010.91</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>639.022</v>
+      </c>
+      <c r="AB6" s="7">
         <v>2710.84</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AC6" s="7">
         <v>661.229</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AD6" s="7">
         <v>1837.33</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE6" s="7">
         <v>12343.8</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AF6" s="7">
         <v>623.755</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>35.559</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AH6" s="7">
+        <v>317.903</v>
+      </c>
+      <c r="AI6" s="7">
         <v>8085.56</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:35">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7" s="9">
         <v>11129.5</v>
@@ -7476,30 +8049,39 @@
         <v>590.841</v>
       </c>
       <c r="Z7" s="9">
+        <v>4755.4</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>41.175</v>
+      </c>
+      <c r="AB7" s="9">
         <v>293.479</v>
       </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
         <v>54.758</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AE7" s="9">
         <v>2797.95</v>
       </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
       <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>48.078</v>
+      </c>
+      <c r="AI7" s="9">
         <v>335.111</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7">
         <v>1934.8</v>
@@ -7574,30 +8156,39 @@
         <v>370.338</v>
       </c>
       <c r="Z8" s="7">
+        <v>995.053</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>152.23</v>
+      </c>
+      <c r="AB8" s="7">
         <v>964.4690000000001</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AC8" s="7">
         <v>129.05</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>443.04</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE8" s="7">
         <v>3285.67</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AF8" s="7">
         <v>429.844</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>4.907</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AH8" s="7">
+        <v>147.125</v>
+      </c>
+      <c r="AI8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:35">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9" s="9">
         <v>223.853</v>
@@ -7672,30 +8263,39 @@
         <v>386.494</v>
       </c>
       <c r="Z9" s="9">
+        <v>134.466</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
         <v>6.232</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AC9" s="9">
         <v>0.007</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AD9" s="9">
         <v>338.854</v>
       </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>0</v>
-      </c>
       <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
         <v>0.032</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AH9" s="9">
+        <v>14.656</v>
+      </c>
+      <c r="AI9" s="9">
         <v>162.164</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10" s="7">
         <v>807.538</v>
@@ -7770,30 +8370,39 @@
         <v>-198.398</v>
       </c>
       <c r="Z10" s="7">
+        <v>1277.25</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>10.375</v>
+      </c>
+      <c r="AB10" s="7">
         <v>280.009</v>
       </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
       <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
         <v>399.916</v>
       </c>
-      <c r="AD10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
       <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>14.963</v>
+      </c>
+      <c r="AI10" s="7">
         <v>6952.87</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="9">
         <v>6006.82</v>
@@ -7868,30 +8477,39 @@
         <v>1012.36</v>
       </c>
       <c r="Z11" s="9">
+        <v>117.671</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>435.242</v>
+      </c>
+      <c r="AB11" s="9">
         <v>1179.11</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AC11" s="9">
         <v>532.186</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AD11" s="9">
         <v>1678.39</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AE11" s="9">
         <v>5860.32</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>193.911</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>30.684</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AH11" s="9">
+        <v>122.393</v>
+      </c>
+      <c r="AI11" s="9">
         <v>959.748</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12" s="7">
         <v>837.697</v>
@@ -7966,30 +8584,39 @@
         <v>748.78</v>
       </c>
       <c r="Z12" s="7">
+        <v>115.057</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1.144</v>
+      </c>
+      <c r="AB12" s="7">
         <v>-3.818</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AC12" s="7">
         <v>18.177</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AD12" s="7">
         <v>44.447</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AE12" s="7">
         <v>6513.07</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AF12" s="7">
         <v>240.1</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>12.987</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AH12" s="7">
+        <v>8.912000000000001</v>
+      </c>
+      <c r="AI12" s="7">
         <v>1056.46</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:35">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9">
         <v>2371.94</v>
@@ -8064,30 +8691,39 @@
         <v>304.978</v>
       </c>
       <c r="Z13" s="9">
+        <v>609.923</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>26.545</v>
+      </c>
+      <c r="AB13" s="9">
         <v>533.255</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AC13" s="9">
         <v>287.726</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AD13" s="9">
         <v>972.246</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AE13" s="9">
         <v>4127.39</v>
       </c>
-      <c r="AD13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="9">
+      <c r="AF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
         <v>11.035</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AH13" s="9">
+        <v>20.23</v>
+      </c>
+      <c r="AI13" s="9">
         <v>653.792</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" s="7">
         <v>27.232</v>
@@ -8162,30 +8798,39 @@
         <v>0</v>
       </c>
       <c r="Z14" s="7">
+        <v>13.335</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
       <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
         <v>-438.55</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AF14" s="7">
         <v>19.638</v>
       </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:35">
       <c r="A15" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15" s="9">
         <v>4499.82</v>
@@ -8260,30 +8905,39 @@
         <v>1456.16</v>
       </c>
       <c r="Z15" s="9">
+        <v>-363.86</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>409.841</v>
+      </c>
+      <c r="AB15" s="9">
         <v>641.228</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AC15" s="9">
         <v>262.637</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AD15" s="9">
         <v>750.588</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AE15" s="9">
         <v>7807.45</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AF15" s="9">
         <v>453.649</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AG15" s="9">
         <v>32.636</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AH15" s="9">
+        <v>111.075</v>
+      </c>
+      <c r="AI15" s="9">
         <v>1362.42</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16" s="7">
         <v>1357.61</v>
@@ -8358,30 +9012,39 @@
         <v>163.07</v>
       </c>
       <c r="Z16" s="7">
+        <v>282.754</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>126.26</v>
+      </c>
+      <c r="AB16" s="7">
         <v>302.759</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AC16" s="7">
         <v>23.346</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AD16" s="7">
         <v>31.527</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AE16" s="7">
         <v>3858.87</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AF16" s="7">
         <v>148.046</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>-2.109</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AH16" s="7">
+        <v>22.215</v>
+      </c>
+      <c r="AI16" s="7">
         <v>465.35</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:35">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17" s="9">
         <v>3142.21</v>
@@ -8456,30 +9119,39 @@
         <v>1293.1</v>
       </c>
       <c r="Z17" s="9">
+        <v>-646.614</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>283.581</v>
+      </c>
+      <c r="AB17" s="9">
         <v>338.469</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AC17" s="9">
         <v>239.291</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AD17" s="9">
         <v>719.061</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AE17" s="9">
         <v>3948.57</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AF17" s="9">
         <v>305.603</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AG17" s="9">
         <v>34.745</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AH17" s="9">
+        <v>88.86</v>
+      </c>
+      <c r="AI17" s="9">
         <v>897.066</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:35">
       <c r="A18" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -8574,10 +9246,19 @@
       <c r="AF18" s="7">
         <v>0</v>
       </c>
+      <c r="AG18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:35">
       <c r="A19" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19" s="9">
         <v>3142.21</v>
@@ -8652,30 +9333,39 @@
         <v>1293.5</v>
       </c>
       <c r="Z19" s="9">
+        <v>-646.614</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>283.581</v>
+      </c>
+      <c r="AB19" s="9">
         <v>338.469</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AC19" s="9">
         <v>239.291</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AD19" s="9">
         <v>719.061</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AE19" s="9">
         <v>3948.57</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AF19" s="9">
         <v>305.603</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AG19" s="9">
         <v>34.745</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AH19" s="9">
+        <v>88.86</v>
+      </c>
+      <c r="AI19" s="9">
         <v>897.066</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:35">
       <c r="A20" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20" s="7">
         <v>2519.28</v>
@@ -8750,30 +9440,39 @@
         <v>1293.52</v>
       </c>
       <c r="Z20" s="7">
+        <v>-646.614</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>283.584</v>
+      </c>
+      <c r="AB20" s="7">
         <v>338.469</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AC20" s="7">
         <v>239.056</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AD20" s="7">
         <v>716.914</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AE20" s="7">
         <v>3670.32</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AF20" s="7">
         <v>305.603</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>34.745</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AH20" s="7">
+        <v>86.26900000000001</v>
+      </c>
+      <c r="AI20" s="7">
         <v>897.066</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:35">
       <c r="A21" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B21" s="9">
         <v>622.928</v>
@@ -8851,31 +9550,40 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9">
+        <v>-0.003</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
         <v>0.235</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AD21" s="9">
         <v>2.147</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AE21" s="9">
         <v>278.255</v>
       </c>
-      <c r="AD21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="9">
-        <v>0</v>
-      </c>
       <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>2.591</v>
+      </c>
+      <c r="AI21" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:AF15">
+  <conditionalFormatting sqref="A15:AI15">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:AF19">
+  <conditionalFormatting sqref="A19:AI19">
     <cfRule type="notContainsErrors" dxfId="0" priority="2">
       <formula>NOT(ISERROR(A19))</formula>
     </cfRule>
@@ -8896,7 +9604,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF21"/>
+  <dimension ref="A2:AI21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -8911,7 +9619,7 @@
     <col min="2" max="234" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9008,10 +9716,19 @@
       <c r="AF2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -9050,14 +9767,17 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B4" s="7">
         <v>169314</v>
@@ -9132,30 +9852,39 @@
         <v>30935.9</v>
       </c>
       <c r="Z4" s="7">
+        <v>80831.3</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>4466.19</v>
+      </c>
+      <c r="AB4" s="7">
         <v>66325.39999999999</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AC4" s="7">
         <v>5367.47</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AD4" s="7">
         <v>35957.2</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AE4" s="7">
         <v>97361.60000000001</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF4" s="7">
         <v>11093.6</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>149.855</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AH4" s="7">
+        <v>3650.82</v>
+      </c>
+      <c r="AI4" s="7">
         <v>22159.6</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5" s="9">
         <v>92609.2</v>
@@ -9230,30 +9959,39 @@
         <v>25749.7</v>
       </c>
       <c r="Z5" s="9">
+        <v>53330</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>2743.18</v>
+      </c>
+      <c r="AB5" s="9">
         <v>58343.1</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AC5" s="9">
         <v>3128.07</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AD5" s="9">
         <v>29236.3</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AE5" s="9">
         <v>56989.7</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AF5" s="9">
         <v>8517.01</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AG5" s="9">
         <v>10.155</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AH5" s="9">
+        <v>2662.99</v>
+      </c>
+      <c r="AI5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="7">
         <v>76704.60000000001</v>
@@ -9328,30 +10066,39 @@
         <v>5186.2</v>
       </c>
       <c r="Z6" s="7">
+        <v>27501.3</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1723.01</v>
+      </c>
+      <c r="AB6" s="7">
         <v>7982.37</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AC6" s="7">
         <v>2239.4</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AD6" s="7">
         <v>6720.89</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE6" s="7">
         <v>40372</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AF6" s="7">
         <v>2576.56</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>139.7</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AH6" s="7">
+        <v>987.823</v>
+      </c>
+      <c r="AI6" s="7">
         <v>22159.6</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:35">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7" s="9">
         <v>45806.5</v>
@@ -9426,30 +10173,39 @@
         <v>2496.78</v>
       </c>
       <c r="Z7" s="9">
+        <v>18917.3</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>141.267</v>
+      </c>
+      <c r="AB7" s="9">
         <v>970.268</v>
       </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
         <v>199.501</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AE7" s="9">
         <v>10366.6</v>
       </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
       <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>152.96</v>
+      </c>
+      <c r="AI7" s="9">
         <v>1840.82</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7">
         <v>8640.66</v>
@@ -9524,30 +10280,39 @@
         <v>1591.17</v>
       </c>
       <c r="Z8" s="7">
+        <v>3516.16</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>593.634</v>
+      </c>
+      <c r="AB8" s="7">
         <v>4010.19</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AC8" s="7">
         <v>518.058</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>1614.14</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE8" s="7">
         <v>12713.7</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AF8" s="7">
         <v>1728.3</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>18.662</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AH8" s="7">
+        <v>378.147</v>
+      </c>
+      <c r="AI8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:35">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9" s="9">
         <v>1386.51</v>
@@ -9622,30 +10387,39 @@
         <v>1085.19</v>
       </c>
       <c r="Z9" s="9">
+        <v>339.051</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
         <v>133.401</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AC9" s="9">
         <v>0.128</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AD9" s="9">
         <v>554.6900000000001</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AE9" s="9">
         <v>257.445</v>
       </c>
-      <c r="AD9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="9">
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
         <v>0.008</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AH9" s="9">
+        <v>26.042</v>
+      </c>
+      <c r="AI9" s="9">
         <v>730.333</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10" s="7">
         <v>2171.49</v>
@@ -9720,14 +10494,14 @@
         <v>930.776</v>
       </c>
       <c r="Z10" s="7">
+        <v>1735.7</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>56.541</v>
+      </c>
+      <c r="AB10" s="7">
         <v>1168.32</v>
       </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
       <c r="AC10" s="7">
         <v>0</v>
       </c>
@@ -9738,12 +10512,21 @@
         <v>0</v>
       </c>
       <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>25.573</v>
+      </c>
+      <c r="AI10" s="7">
         <v>24302.7</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="9">
         <v>21472.4</v>
@@ -9818,30 +10601,39 @@
         <v>1252.66</v>
       </c>
       <c r="Z11" s="9">
+        <v>3671.25</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>931.568</v>
+      </c>
+      <c r="AB11" s="9">
         <v>1966.99</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AC11" s="9">
         <v>1721.47</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AD11" s="9">
         <v>5461.94</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AE11" s="9">
         <v>17549.2</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>848.2619999999999</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>121.046</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AH11" s="9">
+        <v>457.185</v>
+      </c>
+      <c r="AI11" s="9">
         <v>-3253.6</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12" s="7">
         <v>6501.09</v>
@@ -9916,30 +10708,39 @@
         <v>29.223</v>
       </c>
       <c r="Z12" s="7">
+        <v>166.8</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>17.007</v>
+      </c>
+      <c r="AB12" s="7">
         <v>-0.205</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AC12" s="7">
         <v>191.411</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AD12" s="7">
         <v>113.236</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AE12" s="7">
         <v>4380.98</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AF12" s="7">
         <v>902.36</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>45.682</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AH12" s="7">
+        <v>29.745</v>
+      </c>
+      <c r="AI12" s="7">
         <v>730.817</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:35">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9">
         <v>9977.01</v>
@@ -10014,30 +10815,39 @@
         <v>1823.71</v>
       </c>
       <c r="Z13" s="9">
+        <v>2561.52</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>157.253</v>
+      </c>
+      <c r="AB13" s="9">
         <v>2690.29</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AC13" s="9">
         <v>420.499</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AD13" s="9">
         <v>61.999</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AE13" s="9">
         <v>10482.2</v>
       </c>
-      <c r="AD13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="9">
+      <c r="AF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
         <v>39.224</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AH13" s="9">
+        <v>61.621</v>
+      </c>
+      <c r="AI13" s="9">
         <v>3177.2</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" s="7">
         <v>4.247</v>
@@ -10112,30 +10922,39 @@
         <v>0</v>
       </c>
       <c r="Z14" s="7">
+        <v>52.793</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
         <v>-28.91</v>
       </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
       <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
         <v>-5769.41</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AF14" s="7">
         <v>37.845</v>
       </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:35">
       <c r="A15" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15" s="9">
         <v>18000.7</v>
@@ -10210,30 +11029,39 @@
         <v>-541.832</v>
       </c>
       <c r="Z15" s="9">
+        <v>1329.33</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>791.322</v>
+      </c>
+      <c r="AB15" s="9">
         <v>-752.417</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AC15" s="9">
         <v>1492.38</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AD15" s="9">
         <v>5513.17</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AE15" s="9">
         <v>5678.58</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AF15" s="9">
         <v>1788.47</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AG15" s="9">
         <v>127.504</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AH15" s="9">
+        <v>425.309</v>
+      </c>
+      <c r="AI15" s="9">
         <v>-5699.98</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16" s="7">
         <v>5427.15</v>
@@ -10308,30 +11136,39 @@
         <v>30.159</v>
       </c>
       <c r="Z16" s="7">
+        <v>844.366</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>232.471</v>
+      </c>
+      <c r="AB16" s="7">
         <v>180.541</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AC16" s="7">
         <v>394.501</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AD16" s="7">
         <v>1334.88</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AE16" s="7">
         <v>5004.66</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AF16" s="7">
         <v>424.448</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>60.548</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AH16" s="7">
+        <v>85.062</v>
+      </c>
+      <c r="AI16" s="7">
         <v>-1406.18</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:35">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17" s="9">
         <v>12573.6</v>
@@ -10406,30 +11243,39 @@
         <v>-571.991</v>
       </c>
       <c r="Z17" s="9">
+        <v>484.966</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>558.851</v>
+      </c>
+      <c r="AB17" s="9">
         <v>-932.958</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AC17" s="9">
         <v>1097.88</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AD17" s="9">
         <v>4178.3</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AE17" s="9">
         <v>673.926</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AF17" s="9">
         <v>1364.02</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AG17" s="9">
         <v>66.956</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AH17" s="9">
+        <v>340.247</v>
+      </c>
+      <c r="AI17" s="9">
         <v>-4293.79</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:35">
       <c r="A18" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -10524,10 +11370,19 @@
       <c r="AF18" s="7">
         <v>0</v>
       </c>
+      <c r="AG18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:35">
       <c r="A19" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19" s="9">
         <v>12573.6</v>
@@ -10602,30 +11457,39 @@
         <v>-569.976</v>
       </c>
       <c r="Z19" s="9">
+        <v>484.966</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>558.851</v>
+      </c>
+      <c r="AB19" s="9">
         <v>-932.958</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AC19" s="9">
         <v>1097.88</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AD19" s="9">
         <v>4178.3</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AE19" s="9">
         <v>673.926</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AF19" s="9">
         <v>1364.02</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AG19" s="9">
         <v>66.956</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AH19" s="9">
+        <v>340.247</v>
+      </c>
+      <c r="AI19" s="9">
         <v>-4293.79</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:35">
       <c r="A20" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20" s="7">
         <v>10276.1</v>
@@ -10700,30 +11564,39 @@
         <v>-569.884</v>
       </c>
       <c r="Z20" s="7">
+        <v>484.966</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>558.828</v>
+      </c>
+      <c r="AB20" s="7">
         <v>-932.958</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AC20" s="7">
         <v>1094.36</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AD20" s="7">
         <v>4179.94</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AE20" s="7">
         <v>-892.331</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AF20" s="7">
         <v>1364.02</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>66.956</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AH20" s="7">
+        <v>331.311</v>
+      </c>
+      <c r="AI20" s="7">
         <v>-4293.79</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:35">
       <c r="A21" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B21" s="9">
         <v>2297.5</v>
@@ -10801,31 +11674,40 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9">
+        <v>0.023</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
         <v>3.521</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AD21" s="9">
         <v>-1.64</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AE21" s="9">
         <v>1566.26</v>
       </c>
-      <c r="AD21" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="9">
-        <v>0</v>
-      </c>
       <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>8.936</v>
+      </c>
+      <c r="AI21" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:AF15">
+  <conditionalFormatting sqref="A15:AI15">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:AF19">
+  <conditionalFormatting sqref="A19:AI19">
     <cfRule type="notContainsErrors" dxfId="0" priority="2">
       <formula>NOT(ISERROR(A19))</formula>
     </cfRule>
@@ -10846,7 +11728,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF78"/>
+  <dimension ref="A2:AI78"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -10861,7 +11743,7 @@
     <col min="2" max="234" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10958,10 +11840,19 @@
       <c r="AF2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -11000,14 +11891,17 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B4" s="7">
         <v>12573.6</v>
@@ -11082,30 +11976,39 @@
         <v>-569.976</v>
       </c>
       <c r="Z4" s="7">
+        <v>484.966</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>558.851</v>
+      </c>
+      <c r="AB4" s="7">
         <v>-932.958</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AC4" s="7">
         <v>1097.88</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AD4" s="7">
         <v>4178.3</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AE4" s="7">
         <v>673.926</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF4" s="7">
         <v>1364.02</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>66.956</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AH4" s="7">
+        <v>340.247</v>
+      </c>
+      <c r="AI4" s="7">
         <v>-4293.79</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -11200,10 +12103,19 @@
       <c r="AF5" s="9">
         <v>0</v>
       </c>
+      <c r="AG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6" s="7">
         <v>5427.15</v>
@@ -11278,30 +12190,39 @@
         <v>30.159</v>
       </c>
       <c r="Z6" s="7">
+        <v>844.366</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>232.471</v>
+      </c>
+      <c r="AB6" s="7">
         <v>180.541</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AC6" s="7">
         <v>394.501</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AD6" s="7">
         <v>1334.88</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE6" s="7">
         <v>5004.66</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AF6" s="7">
         <v>424.448</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>60.548</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AH6" s="7">
+        <v>85.062</v>
+      </c>
+      <c r="AI6" s="7">
         <v>-1406.18</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:35">
       <c r="A7" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7" s="9">
         <v>3218.1</v>
@@ -11376,30 +12297,39 @@
         <v>1277.98</v>
       </c>
       <c r="Z7" s="9">
-        <v>0</v>
+        <v>2403.71</v>
       </c>
       <c r="AA7" s="9">
-        <v>0</v>
+        <v>143.521</v>
       </c>
       <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
         <v>-59.494</v>
       </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
         <v>-4009.55</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AG7" s="9">
         <v>38.741</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AH7" s="9">
+        <v>43.687</v>
+      </c>
+      <c r="AI7" s="9">
         <v>2029.93</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B8" s="7">
         <v>9623.65</v>
@@ -11474,30 +12404,39 @@
         <v>1947.28</v>
       </c>
       <c r="Z8" s="7">
+        <v>4350.62</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>323.765</v>
+      </c>
+      <c r="AB8" s="7">
         <v>6826.24</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AC8" s="7">
         <v>435.344</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>1267.36</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE8" s="7">
         <v>21260.8</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AF8" s="7">
         <v>253.702</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>1.477</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AH8" s="7">
+        <v>47.238</v>
+      </c>
+      <c r="AI8" s="7">
         <v>5947.42</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:35">
       <c r="A9" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" s="9">
         <v>1355.59</v>
@@ -11572,30 +12511,39 @@
         <v>667.8150000000001</v>
       </c>
       <c r="Z9" s="9">
+        <v>-7.352</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
         <v>132.554</v>
       </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
       <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
         <v>40.803</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AF9" s="9">
         <v>1432.99</v>
       </c>
-      <c r="AE9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="9">
+      <c r="AG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B10" s="7">
         <v>89.21899999999999</v>
@@ -11670,30 +12618,39 @@
         <v>0</v>
       </c>
       <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>11.367</v>
+      </c>
+      <c r="AB10" s="7">
         <v>64.392</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AC10" s="7">
         <v>410.269</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AD10" s="7">
         <v>8.515000000000001</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AE10" s="7">
         <v>2513.12</v>
       </c>
-      <c r="AD10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
       <c r="AF10" s="7">
         <v>0</v>
       </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B11" s="9">
         <v>257.813</v>
@@ -11768,30 +12725,39 @@
         <v>0</v>
       </c>
       <c r="Z11" s="9">
+        <v>-94.852</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
         <v>944.336</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AC11" s="9">
         <v>-72.253</v>
       </c>
-      <c r="AB11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="9">
+      <c r="AD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
         <v>-2596.2</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>-568.172</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>0.172</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AH11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -11875,21 +12841,30 @@
         <v>0</v>
       </c>
       <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
         <v>962.806</v>
       </c>
-      <c r="AD12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="7">
+      <c r="AF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
         <v>3.678</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
         <v>48.772</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:35">
       <c r="A13" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -11967,27 +12942,36 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
         <v>75.262</v>
       </c>
-      <c r="AB13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="9">
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
         <v>-89.32299999999999</v>
       </c>
-      <c r="AD13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="9">
-        <v>0</v>
-      </c>
       <c r="AF13" s="9">
         <v>0</v>
       </c>
+      <c r="AG13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -12082,10 +13066,19 @@
       <c r="AF14" s="7">
         <v>0</v>
       </c>
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:35">
       <c r="A15" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -12160,30 +13153,39 @@
         <v>18.7</v>
       </c>
       <c r="Z15" s="9">
+        <v>15.246</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>24.19</v>
+      </c>
+      <c r="AB15" s="9">
         <v>-6.309</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AC15" s="9">
         <v>-5.38</v>
       </c>
-      <c r="AB15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="9">
         <v>-74.175</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AF15" s="9">
         <v>50.29</v>
       </c>
-      <c r="AE15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="9">
+      <c r="AG15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>0.723</v>
+      </c>
+      <c r="AI15" s="9">
         <v>-707.927</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:35">
       <c r="A16" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B16" s="7">
         <v>-66.208</v>
@@ -12258,30 +13260,39 @@
         <v>-1085.19</v>
       </c>
       <c r="Z16" s="7">
+        <v>-52.793</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
         <v>28.91</v>
       </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>0</v>
-      </c>
       <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
         <v>5769.41</v>
       </c>
-      <c r="AD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>0</v>
-      </c>
       <c r="AF16" s="7">
         <v>0</v>
       </c>
+      <c r="AG16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:35">
       <c r="A17" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17" s="9">
         <v>-365.762</v>
@@ -12356,30 +13367,39 @@
         <v>-303.441</v>
       </c>
       <c r="Z17" s="9">
+        <v>-153.155</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>-52.852</v>
+      </c>
+      <c r="AB17" s="9">
         <v>-630.872</v>
       </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
         <v>-738.508</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AE17" s="9">
         <v>-576.277</v>
       </c>
-      <c r="AD17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="9">
-        <v>0</v>
-      </c>
       <c r="AF17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>-289.505</v>
+      </c>
+      <c r="AI17" s="9">
         <v>22.949</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:35">
       <c r="A18" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B18" s="7">
         <v>1300.12</v>
@@ -12454,30 +13474,39 @@
         <v>-460.471</v>
       </c>
       <c r="Z18" s="7">
+        <v>-153.337</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>-219.602</v>
+      </c>
+      <c r="AB18" s="7">
         <v>-1077.78</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AC18" s="7">
         <v>-37.934</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AD18" s="7">
         <v>-908.5700000000001</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AE18" s="7">
         <v>326.436</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AF18" s="7">
         <v>-5335.15</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AG18" s="7">
         <v>1.911</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AH18" s="7">
+        <v>19.22</v>
+      </c>
+      <c r="AI18" s="7">
         <v>393.537</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:35">
       <c r="A19" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B19" s="9">
         <v>-1529.81</v>
@@ -12552,30 +13581,39 @@
         <v>-26.622</v>
       </c>
       <c r="Z19" s="9">
+        <v>-784.191</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>-26.793</v>
+      </c>
+      <c r="AB19" s="9">
         <v>294.695</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AC19" s="9">
         <v>-263.173</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AD19" s="9">
         <v>-985.211</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AE19" s="9">
         <v>-2915.42</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AF19" s="9">
         <v>1805.62</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AG19" s="9">
         <v>-3.648</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AH19" s="9">
+        <v>-36.733</v>
+      </c>
+      <c r="AI19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:35">
       <c r="A20" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B20" s="7">
         <v>433.923</v>
@@ -12650,30 +13688,39 @@
         <v>324.28</v>
       </c>
       <c r="Z20" s="7">
+        <v>1308.28</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>104.222</v>
+      </c>
+      <c r="AB20" s="7">
         <v>54.467</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AC20" s="7">
         <v>-48.307</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AD20" s="7">
         <v>370.197</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AE20" s="7">
         <v>1012.07</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AF20" s="7">
         <v>417.704</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>-0.713</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AH20" s="7">
+        <v>23.261</v>
+      </c>
+      <c r="AI20" s="7">
         <v>923.691</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:35">
       <c r="A21" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B21" s="9">
         <v>1876.54</v>
@@ -12748,30 +13795,39 @@
         <v>646.646</v>
       </c>
       <c r="Z21" s="9">
+        <v>-253.243</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>129.769</v>
+      </c>
+      <c r="AB21" s="9">
         <v>1186.29</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AC21" s="9">
         <v>-168.212</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AD21" s="9">
         <v>-1349.17</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AE21" s="9">
         <v>787.0170000000001</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AF21" s="9">
         <v>667.112</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AG21" s="9">
         <v>-0.143</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AH21" s="9">
+        <v>-74.364</v>
+      </c>
+      <c r="AI21" s="9">
         <v>5.91</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:35">
       <c r="A22" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -12846,14 +13902,14 @@
         <v>0</v>
       </c>
       <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
         <v>160.506</v>
       </c>
-      <c r="AA22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0</v>
-      </c>
       <c r="AC22" s="7">
         <v>0</v>
       </c>
@@ -12864,12 +13920,21 @@
         <v>0</v>
       </c>
       <c r="AF22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>14.365</v>
+      </c>
+      <c r="AI22" s="7">
         <v>23.691</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:35">
       <c r="A23" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B23" s="9">
         <v>0</v>
@@ -12944,30 +14009,39 @@
         <v>0</v>
       </c>
       <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
         <v>1687.42</v>
       </c>
-      <c r="AA23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>0</v>
-      </c>
       <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
         <v>-933.506</v>
       </c>
-      <c r="AD23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="9">
-        <v>0</v>
-      </c>
       <c r="AF23" s="9">
         <v>0</v>
       </c>
+      <c r="AG23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:35">
       <c r="A24" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24" s="7">
         <v>0</v>
@@ -13062,10 +14136,19 @@
       <c r="AF24" s="7">
         <v>0</v>
       </c>
+      <c r="AG24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:35">
       <c r="A25" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B25" s="9">
         <v>0</v>
@@ -13160,10 +14243,19 @@
       <c r="AF25" s="9">
         <v>0</v>
       </c>
+      <c r="AG25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:35">
       <c r="A26" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -13253,15 +14345,24 @@
         <v>0</v>
       </c>
       <c r="AE26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7">
         <v>-45.37</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AH26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:35">
       <c r="A27" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B27" s="9">
         <v>0</v>
@@ -13345,21 +14446,30 @@
         <v>0</v>
       </c>
       <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9">
         <v>380.863</v>
       </c>
-      <c r="AD27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="9">
-        <v>0</v>
-      </c>
       <c r="AF27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="9">
         <v>1846.4</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:35">
       <c r="A28" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B28" s="7">
         <v>21620.3</v>
@@ -13434,30 +14544,39 @@
         <v>3213.23</v>
       </c>
       <c r="Z28" s="7">
+        <v>7423.3</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>670.058</v>
+      </c>
+      <c r="AB28" s="7">
         <v>9845.389999999999</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AC28" s="7">
         <v>720.117</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AD28" s="7">
         <v>-1060</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AE28" s="7">
         <v>30873.1</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AF28" s="7">
         <v>-4861.01</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>56.653</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AH28" s="7">
+        <v>-167.046</v>
+      </c>
+      <c r="AI28" s="7">
         <v>9128.200000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:35">
       <c r="A29" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B29" s="9">
         <v>34193.9</v>
@@ -13532,30 +14651,39 @@
         <v>2643.25</v>
       </c>
       <c r="Z29" s="9">
+        <v>7908.27</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>1228.91</v>
+      </c>
+      <c r="AB29" s="9">
         <v>8912.440000000001</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AC29" s="9">
         <v>1818</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AD29" s="9">
         <v>3118.29</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AE29" s="9">
         <v>31547</v>
       </c>
-      <c r="AD29" s="9">
+      <c r="AF29" s="9">
         <v>-3496.99</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AG29" s="9">
         <v>123.609</v>
       </c>
-      <c r="AF29" s="9">
+      <c r="AH29" s="9">
+        <v>173.201</v>
+      </c>
+      <c r="AI29" s="9">
         <v>4834.41</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:35">
       <c r="A30" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B30" s="7">
         <v>0</v>
@@ -13636,24 +14764,33 @@
         <v>0</v>
       </c>
       <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
         <v>1990</v>
       </c>
-      <c r="AC30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>0</v>
-      </c>
       <c r="AE30" s="7">
         <v>0</v>
       </c>
       <c r="AF30" s="7">
         <v>0</v>
       </c>
+      <c r="AG30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:35">
       <c r="A31" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B31" s="9">
         <v>0</v>
@@ -13748,10 +14885,19 @@
       <c r="AF31" s="9">
         <v>0</v>
       </c>
+      <c r="AG31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:35">
       <c r="A32" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B32" s="7">
         <v>0</v>
@@ -13829,27 +14975,36 @@
         <v>0</v>
       </c>
       <c r="AA32" s="7">
+        <v>138.134</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
         <v>-345.237</v>
       </c>
-      <c r="AB32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7">
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
         <v>-10482.2</v>
       </c>
-      <c r="AD32" s="7">
+      <c r="AF32" s="7">
         <v>6606.68</v>
       </c>
-      <c r="AE32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="7">
+      <c r="AG32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:35">
       <c r="A33" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B33" s="9">
         <v>0</v>
@@ -13927,27 +15082,36 @@
         <v>0</v>
       </c>
       <c r="AA33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
         <v>-111.889</v>
       </c>
-      <c r="AB33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="9">
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9">
         <v>-72.861</v>
       </c>
-      <c r="AD33" s="9">
+      <c r="AF33" s="9">
         <v>10507.8</v>
       </c>
-      <c r="AE33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="9">
+      <c r="AG33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="9">
+        <v>11.255</v>
+      </c>
+      <c r="AI33" s="9">
         <v>101.511</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:35">
       <c r="A34" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B34" s="7">
         <v>5533.28</v>
@@ -14022,30 +15186,39 @@
         <v>561.516</v>
       </c>
       <c r="Z34" s="7">
+        <v>1454.17</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>127.594</v>
+      </c>
+      <c r="AB34" s="7">
         <v>365.623</v>
       </c>
-      <c r="AA34" s="7">
+      <c r="AC34" s="7">
         <v>747.867</v>
       </c>
-      <c r="AB34" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7">
+      <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
         <v>8681.48</v>
       </c>
-      <c r="AD34" s="7">
+      <c r="AF34" s="7">
         <v>148.211</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>24.093</v>
       </c>
-      <c r="AF34" s="7">
+      <c r="AH34" s="7">
+        <v>38.223</v>
+      </c>
+      <c r="AI34" s="7">
         <v>95.658</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:35">
       <c r="A35" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -14140,10 +15313,19 @@
       <c r="AF35" s="9">
         <v>0</v>
       </c>
+      <c r="AG35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:35">
       <c r="A36" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B36" s="7">
         <v>28660.6</v>
@@ -14218,30 +15400,39 @@
         <v>2071</v>
       </c>
       <c r="Z36" s="7">
+        <v>6454.09</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>963.181</v>
+      </c>
+      <c r="AB36" s="7">
         <v>8546.809999999999</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AC36" s="7">
         <v>1303.48</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AD36" s="7">
         <v>1128.29</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AE36" s="7">
         <v>33274.8</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AF36" s="7">
         <v>255.957</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AG36" s="7">
         <v>99.51600000000001</v>
       </c>
-      <c r="AF36" s="7">
+      <c r="AH36" s="7">
+        <v>146.233</v>
+      </c>
+      <c r="AI36" s="7">
         <v>4840.26</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:35">
       <c r="A37" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B37" s="9">
         <v>0</v>
@@ -14336,10 +15527,19 @@
       <c r="AF37" s="9">
         <v>0</v>
       </c>
+      <c r="AG37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:35">
       <c r="A38" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B38" s="7">
         <v>0</v>
@@ -14434,10 +15634,19 @@
       <c r="AF38" s="7">
         <v>0</v>
       </c>
+      <c r="AG38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:35">
       <c r="A39" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B39" s="9">
         <v>0</v>
@@ -14532,10 +15741,19 @@
       <c r="AF39" s="9">
         <v>0</v>
       </c>
+      <c r="AG39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:35">
       <c r="A40" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
@@ -14630,10 +15848,19 @@
       <c r="AF40" s="7">
         <v>0</v>
       </c>
+      <c r="AG40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:35">
       <c r="A41" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B41" s="9">
         <v>0</v>
@@ -14728,10 +15955,19 @@
       <c r="AF41" s="9">
         <v>0</v>
       </c>
+      <c r="AG41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:35">
       <c r="A42" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B42" s="7">
         <v>65.709</v>
@@ -14818,18 +16054,27 @@
         <v>0</v>
       </c>
       <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
         <v>594.121</v>
       </c>
-      <c r="AE42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="7">
+      <c r="AG42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:35">
       <c r="A43" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B43" s="9">
         <v>376.699</v>
@@ -14904,30 +16149,39 @@
         <v>5.387</v>
       </c>
       <c r="Z43" s="9">
+        <v>79.036</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="9">
         <v>6.309</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AC43" s="9">
         <v>5.38</v>
       </c>
-      <c r="AB43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="9">
+      <c r="AD43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="9">
         <v>1517.69</v>
       </c>
-      <c r="AD43" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="9">
-        <v>0</v>
-      </c>
       <c r="AF43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="9">
         <v>3433.54</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:35">
       <c r="A44" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B44" s="7">
         <v>6723.11</v>
@@ -15002,30 +16256,39 @@
         <v>871.571</v>
       </c>
       <c r="Z44" s="7">
+        <v>1576.84</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>128.513</v>
+      </c>
+      <c r="AB44" s="7">
         <v>4365.32</v>
       </c>
-      <c r="AA44" s="7">
+      <c r="AC44" s="7">
         <v>157.992</v>
       </c>
-      <c r="AB44" s="7">
+      <c r="AD44" s="7">
         <v>895.14</v>
       </c>
-      <c r="AC44" s="7">
+      <c r="AE44" s="7">
         <v>20132</v>
       </c>
-      <c r="AD44" s="7">
+      <c r="AF44" s="7">
         <v>1215.97</v>
       </c>
-      <c r="AE44" s="7">
+      <c r="AG44" s="7">
         <v>72.523</v>
       </c>
-      <c r="AF44" s="7">
+      <c r="AH44" s="7">
+        <v>4.834</v>
+      </c>
+      <c r="AI44" s="7">
         <v>3376.58</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:35">
       <c r="A45" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B45" s="9">
         <v>0</v>
@@ -15120,10 +16383,19 @@
       <c r="AF45" s="9">
         <v>0</v>
       </c>
+      <c r="AG45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:35">
       <c r="A46" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B46" s="7">
         <v>172.55</v>
@@ -15198,30 +16470,39 @@
         <v>183.536</v>
       </c>
       <c r="Z46" s="7">
+        <v>254.09</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="7">
         <v>1216.06</v>
       </c>
-      <c r="AA46" s="7">
+      <c r="AC46" s="7">
         <v>1283.64</v>
       </c>
-      <c r="AB46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="7">
+      <c r="AD46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="7">
         <v>1235.2</v>
       </c>
-      <c r="AD46" s="7">
+      <c r="AF46" s="7">
         <v>49.599</v>
       </c>
-      <c r="AE46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="7">
+      <c r="AG46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="7">
         <v>124.724</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:35">
       <c r="A47" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B47" s="9">
         <v>0</v>
@@ -15316,10 +16597,19 @@
       <c r="AF47" s="9">
         <v>0</v>
       </c>
+      <c r="AG47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:35">
       <c r="A48" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
@@ -15409,15 +16699,24 @@
         <v>0</v>
       </c>
       <c r="AE48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="7">
         <v>0.822</v>
       </c>
-      <c r="AF48" s="7">
+      <c r="AH48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:35">
       <c r="A49" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B49" s="9">
         <v>0</v>
@@ -15512,10 +16811,19 @@
       <c r="AF49" s="9">
         <v>0</v>
       </c>
+      <c r="AG49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:35">
       <c r="A50" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B50" s="7">
         <v>0</v>
@@ -15610,10 +16918,19 @@
       <c r="AF50" s="7">
         <v>0</v>
       </c>
+      <c r="AG50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:35">
       <c r="A51" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B51" s="9">
         <v>0</v>
@@ -15708,10 +17025,19 @@
       <c r="AF51" s="9">
         <v>0</v>
       </c>
+      <c r="AG51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:35">
       <c r="A52" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B52" s="7">
         <v>0</v>
@@ -15806,10 +17132,19 @@
       <c r="AF52" s="7">
         <v>0</v>
       </c>
+      <c r="AG52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:35">
       <c r="A53" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B53" s="9">
         <v>0</v>
@@ -15884,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="9">
-        <v>0</v>
+        <v>-3.14</v>
       </c>
       <c r="AA53" s="9">
         <v>0</v>
@@ -15904,10 +17239,19 @@
       <c r="AF53" s="9">
         <v>0</v>
       </c>
+      <c r="AG53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:35">
       <c r="A54" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B54" s="7">
         <v>0</v>
@@ -16002,10 +17346,19 @@
       <c r="AF54" s="7">
         <v>0</v>
       </c>
+      <c r="AG54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:35">
       <c r="A55" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B55" s="9">
         <v>23.884</v>
@@ -16089,21 +17442,30 @@
         <v>0</v>
       </c>
       <c r="AC55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="9">
         <v>285.669</v>
       </c>
-      <c r="AD55" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="9">
-        <v>0</v>
-      </c>
       <c r="AF55" s="9">
         <v>0</v>
       </c>
+      <c r="AG55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:35">
       <c r="A56" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -16198,10 +17560,19 @@
       <c r="AF56" s="7">
         <v>0</v>
       </c>
+      <c r="AG56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:35">
       <c r="A57" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B57" s="9">
         <v>1099.18</v>
@@ -16276,30 +17647,39 @@
         <v>29.223</v>
       </c>
       <c r="Z57" s="9">
+        <v>134.478</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>13.732</v>
+      </c>
+      <c r="AB57" s="9">
         <v>66.318</v>
       </c>
-      <c r="AA57" s="9">
+      <c r="AC57" s="9">
         <v>111.889</v>
       </c>
-      <c r="AB57" s="9">
+      <c r="AD57" s="9">
         <v>113.236</v>
       </c>
-      <c r="AC57" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="9">
-        <v>0</v>
-      </c>
       <c r="AE57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="9">
         <v>0.312</v>
       </c>
-      <c r="AF57" s="9">
+      <c r="AH57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:35">
       <c r="A58" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B58" s="7">
         <v>0</v>
@@ -16394,10 +17774,19 @@
       <c r="AF58" s="7">
         <v>0</v>
       </c>
+      <c r="AG58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:35">
       <c r="A59" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B59" s="9">
         <v>0</v>
@@ -16472,30 +17861,39 @@
         <v>745.4059999999999</v>
       </c>
       <c r="Z59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>2.168</v>
+      </c>
+      <c r="AB59" s="9">
         <v>-86.26900000000001</v>
       </c>
-      <c r="AA59" s="9">
+      <c r="AC59" s="9">
         <v>-0.065</v>
       </c>
-      <c r="AB59" s="9">
+      <c r="AD59" s="9">
         <v>9.433999999999999</v>
       </c>
-      <c r="AC59" s="9">
+      <c r="AE59" s="9">
         <v>3926.8</v>
       </c>
-      <c r="AD59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="9">
+      <c r="AF59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="9">
         <v>0.12</v>
       </c>
-      <c r="AF59" s="9">
+      <c r="AH59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:35">
       <c r="A60" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B60" s="7">
         <v>-5461.61</v>
@@ -16570,30 +17968,39 @@
         <v>2159.76</v>
       </c>
       <c r="Z60" s="7">
+        <v>-1614.27</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>-112.613</v>
+      </c>
+      <c r="AB60" s="7">
         <v>-5595.03</v>
       </c>
-      <c r="AA60" s="7">
+      <c r="AC60" s="7">
         <v>-1324.43</v>
       </c>
-      <c r="AB60" s="7">
+      <c r="AD60" s="7">
         <v>-772.47</v>
       </c>
-      <c r="AC60" s="7">
+      <c r="AE60" s="7">
         <v>-15637</v>
       </c>
-      <c r="AD60" s="7">
+      <c r="AF60" s="7">
         <v>-1859.69</v>
       </c>
-      <c r="AE60" s="7">
+      <c r="AG60" s="7">
         <v>-72.913</v>
       </c>
-      <c r="AF60" s="7">
+      <c r="AH60" s="7">
+        <v>-4.834</v>
+      </c>
+      <c r="AI60" s="7">
         <v>-67.75700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:35">
       <c r="A61" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B61" s="9">
         <v>0</v>
@@ -16688,10 +18095,19 @@
       <c r="AF61" s="9">
         <v>0</v>
       </c>
+      <c r="AG61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:35">
       <c r="A62" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B62" s="7">
         <v>0</v>
@@ -16775,21 +18191,30 @@
         <v>0</v>
       </c>
       <c r="AC62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="7">
         <v>1324.06</v>
       </c>
-      <c r="AD62" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="7">
-        <v>0</v>
-      </c>
       <c r="AF62" s="7">
         <v>0</v>
       </c>
+      <c r="AG62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:35">
       <c r="A63" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -16864,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="9">
-        <v>0</v>
+        <v>-136.33</v>
       </c>
       <c r="AA63" s="9">
         <v>0</v>
@@ -16876,18 +18301,27 @@
         <v>0</v>
       </c>
       <c r="AD63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="9">
         <v>2450.9</v>
       </c>
-      <c r="AE63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="9">
+      <c r="AG63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="9">
+        <v>396.831</v>
+      </c>
+      <c r="AI63" s="9">
         <v>3272.83</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:35">
       <c r="A64" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B64" s="7">
         <v>0</v>
@@ -16982,10 +18416,19 @@
       <c r="AF64" s="7">
         <v>0</v>
       </c>
+      <c r="AG64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:35">
       <c r="A65" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B65" s="9">
         <v>107.85</v>
@@ -17063,27 +18506,36 @@
         <v>0</v>
       </c>
       <c r="AA65" s="9">
+        <v>230.603</v>
+      </c>
+      <c r="AB65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="9">
         <v>150</v>
       </c>
-      <c r="AB65" s="9">
+      <c r="AD65" s="9">
         <v>41.984</v>
       </c>
-      <c r="AC65" s="9">
+      <c r="AE65" s="9">
         <v>392.597</v>
       </c>
-      <c r="AD65" s="9">
+      <c r="AF65" s="9">
         <v>69.72</v>
       </c>
-      <c r="AE65" s="9">
+      <c r="AG65" s="9">
         <v>14.796</v>
       </c>
-      <c r="AF65" s="9">
+      <c r="AH65" s="9">
+        <v>18.325</v>
+      </c>
+      <c r="AI65" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:35">
       <c r="A66" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B66" s="7">
         <v>0</v>
@@ -17161,7 +18613,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="7">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="AB66" s="7">
         <v>0</v>
@@ -17178,10 +18630,19 @@
       <c r="AF66" s="7">
         <v>0</v>
       </c>
+      <c r="AG66" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:35">
       <c r="A67" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B67" s="9">
         <v>2427.59</v>
@@ -17256,30 +18717,39 @@
         <v>2355.17</v>
       </c>
       <c r="Z67" s="9">
+        <v>18066.4</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>1325</v>
+      </c>
+      <c r="AB67" s="9">
         <v>16527.4</v>
       </c>
-      <c r="AA67" s="9">
+      <c r="AC67" s="9">
         <v>41.895</v>
       </c>
-      <c r="AB67" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="9">
-        <v>0</v>
-      </c>
       <c r="AD67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="9">
         <v>5584.59</v>
       </c>
-      <c r="AE67" s="9">
+      <c r="AG67" s="9">
         <v>125</v>
       </c>
-      <c r="AF67" s="9">
+      <c r="AH67" s="9">
+        <v>4167.95</v>
+      </c>
+      <c r="AI67" s="9">
         <v>2283.18</v>
       </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:35">
       <c r="A68" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B68" s="7">
         <v>6198.07</v>
@@ -17354,30 +18824,39 @@
         <v>1573.34</v>
       </c>
       <c r="Z68" s="7">
+        <v>14531.3</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>1539.48</v>
+      </c>
+      <c r="AB68" s="7">
         <v>13424.4</v>
       </c>
-      <c r="AA68" s="7">
+      <c r="AC68" s="7">
         <v>42.592</v>
       </c>
-      <c r="AB68" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="7">
+      <c r="AD68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="7">
         <v>3242.49</v>
       </c>
-      <c r="AD68" s="7">
+      <c r="AF68" s="7">
         <v>5920.95</v>
       </c>
-      <c r="AE68" s="7">
+      <c r="AG68" s="7">
         <v>0.795</v>
       </c>
-      <c r="AF68" s="7">
+      <c r="AH68" s="7">
+        <v>3615.15</v>
+      </c>
+      <c r="AI68" s="7">
         <v>2140.19</v>
       </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:35">
       <c r="A69" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B69" s="9">
         <v>616.0549999999999</v>
@@ -17452,30 +18931,39 @@
         <v>356.692</v>
       </c>
       <c r="Z69" s="9">
+        <v>957.086</v>
+      </c>
+      <c r="AA69" s="9">
+        <v>109.688</v>
+      </c>
+      <c r="AB69" s="9">
         <v>592.405</v>
       </c>
-      <c r="AA69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="9">
-        <v>0</v>
-      </c>
       <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9">
         <v>953.771</v>
       </c>
-      <c r="AD69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="9">
+      <c r="AF69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="9">
         <v>0.535</v>
       </c>
-      <c r="AF69" s="9">
+      <c r="AH69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="9">
         <v>6591.38</v>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:35">
       <c r="A70" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B70" s="7">
         <v>0</v>
@@ -17570,10 +19058,19 @@
       <c r="AF70" s="7">
         <v>0</v>
       </c>
+      <c r="AG70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:35">
       <c r="A71" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B71" s="9">
         <v>9501.790000000001</v>
@@ -17648,30 +19145,39 @@
         <v>200.674</v>
       </c>
       <c r="Z71" s="9">
+        <v>1492.66</v>
+      </c>
+      <c r="AA71" s="9">
+        <v>0.186</v>
+      </c>
+      <c r="AB71" s="9">
         <v>306.336</v>
       </c>
-      <c r="AA71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="9">
-        <v>0</v>
-      </c>
       <c r="AC71" s="9">
         <v>0</v>
       </c>
       <c r="AD71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="9">
         <v>578.648</v>
       </c>
-      <c r="AE71" s="9">
+      <c r="AG71" s="9">
         <v>53.976</v>
       </c>
-      <c r="AF71" s="9">
+      <c r="AH71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:35">
       <c r="A72" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B72" s="7">
         <v>4317.28</v>
@@ -17746,30 +19252,39 @@
         <v>967.37</v>
       </c>
       <c r="Z72" s="7">
+        <v>2181.9</v>
+      </c>
+      <c r="AA72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="7">
         <v>1497.6</v>
       </c>
-      <c r="AA72" s="7">
+      <c r="AC72" s="7">
         <v>320.866</v>
       </c>
-      <c r="AB72" s="7">
+      <c r="AD72" s="7">
         <v>53.742</v>
       </c>
-      <c r="AC72" s="7">
+      <c r="AE72" s="7">
         <v>9455.389999999999</v>
       </c>
-      <c r="AD72" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="7">
+      <c r="AF72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="7">
         <v>37.987</v>
       </c>
-      <c r="AF72" s="7">
+      <c r="AH72" s="7">
+        <v>54.942</v>
+      </c>
+      <c r="AI72" s="7">
         <v>279.423</v>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:35">
       <c r="A73" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B73" s="9">
         <v>0</v>
@@ -17864,10 +19379,19 @@
       <c r="AF73" s="9">
         <v>0</v>
       </c>
+      <c r="AG73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:35">
       <c r="A74" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B74" s="7">
         <v>0</v>
@@ -17951,21 +19475,30 @@
         <v>0</v>
       </c>
       <c r="AC74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="7">
         <v>127.037</v>
       </c>
-      <c r="AD74" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="7">
+      <c r="AF74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="7">
         <v>0.624</v>
       </c>
-      <c r="AF74" s="7">
+      <c r="AH74" s="7">
+        <v>23.165</v>
+      </c>
+      <c r="AI74" s="7">
         <v>-66.664</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:35">
       <c r="A75" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B75" s="9">
         <v>-18313.5</v>
@@ -18040,30 +19573,39 @@
         <v>-1005.65</v>
       </c>
       <c r="Z75" s="9">
+        <v>-1232.94</v>
+      </c>
+      <c r="AA75" s="9">
+        <v>-554.95</v>
+      </c>
+      <c r="AB75" s="9">
         <v>344.002</v>
       </c>
-      <c r="AA75" s="9">
+      <c r="AC75" s="9">
         <v>-528.888</v>
       </c>
-      <c r="AB75" s="9">
+      <c r="AD75" s="9">
         <v>-95.726</v>
       </c>
-      <c r="AC75" s="9">
+      <c r="AE75" s="9">
         <v>-15909.5</v>
       </c>
-      <c r="AD75" s="9">
+      <c r="AF75" s="9">
         <v>1466.18</v>
       </c>
-      <c r="AE75" s="9">
+      <c r="AG75" s="9">
         <v>17.535</v>
       </c>
-      <c r="AF75" s="9">
+      <c r="AH75" s="9">
+        <v>899.533</v>
+      </c>
+      <c r="AI75" s="9">
         <v>-3521.65</v>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:35">
       <c r="A76" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B76" s="7">
         <v>4885.57</v>
@@ -18138,30 +19680,39 @@
         <v>3225.1</v>
       </c>
       <c r="Z76" s="7">
+        <v>3606.88</v>
+      </c>
+      <c r="AA76" s="7">
+        <v>295.618</v>
+      </c>
+      <c r="AB76" s="7">
         <v>3295.79</v>
       </c>
-      <c r="AA76" s="7">
+      <c r="AC76" s="7">
         <v>-549.841</v>
       </c>
-      <c r="AB76" s="7">
+      <c r="AD76" s="7">
         <v>260.097</v>
       </c>
-      <c r="AC76" s="7">
+      <c r="AE76" s="7">
         <v>1728.25</v>
       </c>
-      <c r="AD76" s="7">
+      <c r="AF76" s="7">
         <v>-137.559</v>
       </c>
-      <c r="AE76" s="7">
+      <c r="AG76" s="7">
         <v>44.138</v>
       </c>
-      <c r="AF76" s="7">
+      <c r="AH76" s="7">
+        <v>1040.93</v>
+      </c>
+      <c r="AI76" s="7">
         <v>1250.85</v>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:35">
       <c r="A77" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B77" s="9">
         <v>398.849</v>
@@ -18236,30 +19787,39 @@
         <v>46.515</v>
       </c>
       <c r="Z77" s="9">
+        <v>-362.461</v>
+      </c>
+      <c r="AA77" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="9">
         <v>-459.617</v>
       </c>
-      <c r="AA77" s="9">
+      <c r="AC77" s="9">
         <v>78.77200000000001</v>
       </c>
-      <c r="AB77" s="9">
+      <c r="AD77" s="9">
         <v>-432.846</v>
       </c>
-      <c r="AC77" s="9">
+      <c r="AE77" s="9">
         <v>-11.516</v>
       </c>
-      <c r="AD77" s="9">
+      <c r="AF77" s="9">
         <v>16.838</v>
       </c>
-      <c r="AE77" s="9">
+      <c r="AG77" s="9">
         <v>1.34</v>
       </c>
-      <c r="AF77" s="9">
+      <c r="AH77" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="9">
         <v>872.5650000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:35">
       <c r="A78" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B78" s="7">
         <v>5284.42</v>
@@ -18334,49 +19894,58 @@
         <v>3271.61</v>
       </c>
       <c r="Z78" s="7">
+        <v>3244.42</v>
+      </c>
+      <c r="AA78" s="7">
+        <v>295.618</v>
+      </c>
+      <c r="AB78" s="7">
         <v>2836.17</v>
       </c>
-      <c r="AA78" s="7">
+      <c r="AC78" s="7">
         <v>-471.069</v>
       </c>
-      <c r="AB78" s="7">
+      <c r="AD78" s="7">
         <v>-172.749</v>
       </c>
-      <c r="AC78" s="7">
+      <c r="AE78" s="7">
         <v>1716.73</v>
       </c>
-      <c r="AD78" s="7">
+      <c r="AF78" s="7">
         <v>-120.721</v>
       </c>
-      <c r="AE78" s="7">
+      <c r="AG78" s="7">
         <v>45.478</v>
       </c>
-      <c r="AF78" s="7">
+      <c r="AH78" s="7">
+        <v>1040.93</v>
+      </c>
+      <c r="AI78" s="7">
         <v>2123.41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A29:AF29">
+  <conditionalFormatting sqref="A29:AI29">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A29))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:AF36">
+  <conditionalFormatting sqref="A36:AI36">
     <cfRule type="notContainsErrors" dxfId="0" priority="2">
       <formula>NOT(ISERROR(A36))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:AF60">
+  <conditionalFormatting sqref="A60:AI60">
     <cfRule type="notContainsErrors" dxfId="0" priority="3">
       <formula>NOT(ISERROR(A60))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:AF75">
+  <conditionalFormatting sqref="A75:AI75">
     <cfRule type="notContainsErrors" dxfId="0" priority="4">
       <formula>NOT(ISERROR(A75))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:AF78">
+  <conditionalFormatting sqref="A78:AI78">
     <cfRule type="notContainsErrors" dxfId="0" priority="5">
       <formula>NOT(ISERROR(A78))</formula>
     </cfRule>
@@ -18397,7 +19966,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF15"/>
+  <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -18412,7 +19981,7 @@
     <col min="2" max="234" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -18509,10 +20078,19 @@
       <c r="AF2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" s="9">
         <v>0.08529100529100529</v>
@@ -18587,30 +20165,39 @@
         <v>-0.0409330250061043</v>
       </c>
       <c r="Z3" s="9">
+        <v>0.02858542335917008</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>0.139403622467179</v>
+      </c>
+      <c r="AB3" s="9">
         <v>-0.02615716312374886</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AC3" s="9">
         <v>0.1014095435148067</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AD3" s="9">
         <v>0.1221125295176638</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AE3" s="9">
         <v>0.007631314927086895</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AF3" s="9">
         <v>0.10201560127742</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AG3" s="9">
         <v>0.06039362834412714</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AH3" s="9">
+        <v>0.07883588321296418</v>
+      </c>
+      <c r="AI3" s="9">
         <v>-1.535585922272807</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" s="7">
         <v>0.05111759779488889</v>
@@ -18685,30 +20272,39 @@
         <v>-0.01241888709013223</v>
       </c>
       <c r="Z4" s="7">
+        <v>0.006737725712269218</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0.09005461117136049</v>
+      </c>
+      <c r="AB4" s="7">
         <v>-0.009449407942113948</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AC4" s="7">
         <v>0.06053628438621739</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AD4" s="7">
         <v>0.08921357622964121</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AE4" s="7">
         <v>0.002477805761347133</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF4" s="7">
         <v>0.01599473729263725</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>0.02970409476065836</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AH4" s="7">
+        <v>0.03676191896207844</v>
+      </c>
+      <c r="AI4" s="7">
         <v>-0.0629397865160963</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B5" s="9">
         <v>0.4530316453453347</v>
@@ -18783,30 +20379,39 @@
         <v>0.1676434175181585</v>
       </c>
       <c r="Z5" s="9">
+        <v>0.3402308264249121</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0.3857896775551421</v>
+      </c>
+      <c r="AB5" s="9">
         <v>0.120351629993939</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AC5" s="9">
         <v>0.4172170501185847</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AD5" s="9">
         <v>0.1869136084010991</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AE5" s="9">
         <v>0.4146603999934265</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AF5" s="9">
         <v>0.2322564361433619</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AG5" s="9">
         <v>0.9322344933435655</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AH5" s="9">
+        <v>0.2705756514974718</v>
+      </c>
+      <c r="AI5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:35">
       <c r="A6" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B6" s="7">
         <v>0.1268199912588445</v>
@@ -18881,30 +20486,39 @@
         <v>0.0404921143396507</v>
       </c>
       <c r="Z6" s="7">
+        <v>0.04541866826340786</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0.2085822591515363</v>
+      </c>
+      <c r="AB6" s="7">
         <v>0.0296566624551077</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AC6" s="7">
         <v>0.3207227986369742</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AD6" s="7">
         <v>0.1519011491439823</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE6" s="7">
         <v>0.1802476541059309</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AF6" s="7">
         <v>0.07646408740174514</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>0.8077541623569452</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AH6" s="7">
+        <v>0.125228030962907</v>
+      </c>
+      <c r="AI6" s="7">
         <v>-0.1468257549775267</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:35">
       <c r="A7" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B7" s="9">
         <v>1.530241398356022</v>
@@ -18979,30 +20593,39 @@
         <v>1.274212804665102</v>
       </c>
       <c r="Z7" s="9">
+        <v>0.9805984442024898</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1.679149467794788</v>
+      </c>
+      <c r="AB7" s="9">
         <v>1.005318000302965</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AC7" s="9">
         <v>1.121392163682374</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AD7" s="9">
         <v>3.149476069489611</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AE7" s="9">
         <v>1.578586561365344</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AF7" s="9">
         <v>1.302413858272782</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AG7" s="9">
         <v>9.576954015283551</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AH7" s="9">
+        <v>3.852791129963396</v>
+      </c>
+      <c r="AI7" s="9">
         <v>0.6768297257755936</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:35">
       <c r="A8" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B8" s="7">
         <v>1.262181357419019</v>
@@ -19077,30 +20700,39 @@
         <v>0.7952544933280271</v>
       </c>
       <c r="Z8" s="7">
+        <v>0.7172969876646857</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>1.517924181769507</v>
+      </c>
+      <c r="AB8" s="7">
         <v>0.5964636909500528</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AC8" s="7">
         <v>1.121392163682374</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>2.084784073150798</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE8" s="7">
         <v>1.541317068850806</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AF8" s="7">
         <v>1.302413858272782</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>9.576954015283551</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AH8" s="7">
+        <v>1.519493281143802</v>
+      </c>
+      <c r="AI8" s="7">
         <v>0.6637487808080429</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:35">
       <c r="A9" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B9" s="9">
         <v>0.8881282692745054</v>
@@ -19175,30 +20807,39 @@
         <v>0.3908720264442405</v>
       </c>
       <c r="Z9" s="9">
+        <v>0.2088988294350942</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0.594405463793651</v>
+      </c>
+      <c r="AB9" s="9">
         <v>0.2810360109196273</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AC9" s="9">
         <v>0.7097060481404637</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AD9" s="9">
         <v>0.8290902541972003</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AE9" s="9">
         <v>0.662349251907981</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AF9" s="9">
         <v>0.1492068406724865</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AG9" s="9">
         <v>8.080305671001476</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AH9" s="9">
+        <v>1.058983450568707</v>
+      </c>
+      <c r="AI9" s="9">
         <v>0.4737686161233448</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:35">
       <c r="A10" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7">
         <v>1.11094902368498</v>
@@ -19273,30 +20914,39 @@
         <v>0.2146767159112136</v>
       </c>
       <c r="Z10" s="7">
+        <v>0.345802888588632</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>1.275165347827079</v>
+      </c>
+      <c r="AB10" s="7">
         <v>0.2872506583039769</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AC10" s="7">
         <v>0.4360705676353126</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AD10" s="7">
         <v>0.3554372394738012</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AE10" s="7">
         <v>0.7163472127923849</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AF10" s="7">
         <v>-0.1406169955245306</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="7">
         <v>8.285896232738972</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AH10" s="7">
+        <v>0.1418296907115191</v>
+      </c>
+      <c r="AI10" s="7">
         <v>0.2266951457403309</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B11" s="9">
         <v>0.4006659240407522</v>
@@ -19371,30 +21021,39 @@
         <v>0.6966047076100479</v>
       </c>
       <c r="Z11" s="9">
+        <v>0.7642950524954256</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0.3540009249575793</v>
+      </c>
+      <c r="AB11" s="9">
         <v>0.6387459372300138</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AC11" s="9">
         <v>0.4030480979714268</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AD11" s="9">
         <v>0.2694150503471777</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AE11" s="9">
         <v>0.6753129768185746</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AF11" s="9">
         <v>0.8432128312497875</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>0.5081584667938424</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AH11" s="9">
+        <v>0.5336905294411275</v>
+      </c>
+      <c r="AI11" s="9">
         <v>0.9590123804246811</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:35">
       <c r="A12" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B12" s="7">
         <v>0.6685212318545651</v>
@@ -19469,30 +21128,39 @@
         <v>2.29603004754176</v>
       </c>
       <c r="Z12" s="7">
+        <v>3.242592319707642</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0.5479898325463286</v>
+      </c>
+      <c r="AB12" s="7">
         <v>1.768130001065399</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AC12" s="7">
         <v>0.6751805804437383</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AD12" s="7">
         <v>0.3687662201024058</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AE12" s="7">
         <v>2.079874896105337</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AF12" s="7">
         <v>5.378072950556067</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>1.033175184456912</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AH12" s="7">
+        <v>1.144498585459778</v>
+      </c>
+      <c r="AI12" s="7">
         <v>23.39769472031586</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:35">
       <c r="A13" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9">
         <v>2.152187879935973</v>
@@ -19567,31 +21235,40 @@
         <v>0.6868745579066847</v>
       </c>
       <c r="Z13" s="9">
+        <v>1.433231050313876</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>5.924007809072005</v>
+      </c>
+      <c r="AB13" s="9">
         <v>0.7311442260871505</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AC13" s="9">
         <v>4.09387418281613</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AD13" s="9">
         <v>88.09722737463507</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AE13" s="9">
         <v>1.674190532521799</v>
       </c>
-      <c r="AD13" s="9" t="e">
+      <c r="AF13" s="9" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AG13" s="9">
         <v>3.086018764022028</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AH13" s="9">
+        <v>7.419305107025203</v>
+      </c>
+      <c r="AI13" s="9">
         <v>-1.024046330101977</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:35">
       <c r="A14" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7">
         <v>0.6883410441754007</v>
@@ -19666,30 +21343,39 @@
         <v>0.6740449582642458</v>
       </c>
       <c r="Z14" s="7">
+        <v>1.123004763975509</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0.7196927336041601</v>
+      </c>
+      <c r="AB14" s="7">
         <v>0.6717727502458678</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AC14" s="7">
         <v>0.2959582926681333</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AD14" s="7">
         <v>0.7677453517469914</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AE14" s="7">
         <v>0.357966799639686</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AF14" s="7">
         <v>0.1300854955422946</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="7">
         <v>0.0664810789228517</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AH14" s="7">
+        <v>0.3944521156252229</v>
+      </c>
+      <c r="AI14" s="7">
         <v>0.3248227075106346</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:35">
       <c r="A15" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B15" s="9">
         <v>11.22451403652089</v>
@@ -19765,27 +21451,36 @@
         <v>4.366376306324791</v>
       </c>
       <c r="Z15" s="9">
+        <v>8.856567776906827</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>17.65499398237834</v>
+      </c>
+      <c r="AB15" s="9">
         <v>4.599232188184843</v>
       </c>
-      <c r="AA15" s="9" t="e">
+      <c r="AC15" s="9" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AD15" s="9">
         <v>3.130003661411506</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AE15" s="9">
         <v>34.72229330408823</v>
       </c>
-      <c r="AD15" s="9" t="e">
+      <c r="AF15" s="9" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
-      <c r="AE15" s="9" t="e">
+      <c r="AG15" s="9" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AH15" s="9">
+        <v>0.9345792096581735</v>
+      </c>
+      <c r="AI15" s="9">
         <v>0</v>
       </c>
     </row>
